--- a/Replication Package.xlsx
+++ b/Replication Package.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALARCOS\Desktop\Carlos\Estudios\IA\Usage-of-Artificial-Intelligence-in-the-Software-Development-Life-Cycle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALARCOS\Desktop\Generative-AI-in-Software-Engineering-A-Systematic-Mapping-Study-based-on-SWEBOK-Areas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D002254B-4A96-4089-ACB6-84DB050792BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D401F107-A97A-43D0-9873-9D540E6E089C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scopus search results" sheetId="35" r:id="rId1"/>
@@ -18,14 +18,10 @@
     <sheet name="Full reading" sheetId="38" r:id="rId3"/>
     <sheet name="SWEBOK areas and activities" sheetId="9" r:id="rId4"/>
     <sheet name="Data extraction form" sheetId="39" r:id="rId5"/>
-    <sheet name="Q1.1" sheetId="40" r:id="rId6"/>
-    <sheet name="Q1.2" sheetId="43" r:id="rId7"/>
-    <sheet name="Q1.3" sheetId="51" r:id="rId8"/>
-    <sheet name="Q2.1" sheetId="44" r:id="rId9"/>
-    <sheet name="Q2.2" sheetId="45" r:id="rId10"/>
-    <sheet name="Q2.3" sheetId="33" r:id="rId11"/>
-    <sheet name="Q3.1" sheetId="48" r:id="rId12"/>
-    <sheet name="Q3.2" sheetId="49" r:id="rId13"/>
+    <sheet name="RQ1" sheetId="40" r:id="rId6"/>
+    <sheet name="RQ2" sheetId="44" r:id="rId7"/>
+    <sheet name="RQ3" sheetId="33" r:id="rId8"/>
+    <sheet name="RQ4" sheetId="48" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4836" uniqueCount="2193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4820" uniqueCount="2193">
   <si>
     <t>Title</t>
   </si>
@@ -6956,7 +6952,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7059,21 +7055,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -7110,6 +7091,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7125,9 +7109,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -7135,17 +7116,15 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="173">
+  <dxfs count="160">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -7170,6 +7149,600 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -7229,6 +7802,13 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FF000000"/>
@@ -7246,13 +7826,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -7790,539 +8363,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -8338,90 +8378,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -8430,221 +8387,6 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -9189,7 +8931,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Q1.1'!$B$3:$B$5</c:f>
+              <c:f>'RQ1'!$B$3:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -9207,7 +8949,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Q1.1'!$C$3:$C$5</c:f>
+              <c:f>'RQ1'!$C$3:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -9651,7 +9393,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Q1.2'!$B$3:$B$5</c:f>
+              <c:f>'RQ1'!$B$30:$B$32</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -9668,7 +9410,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Q1.2'!$C$3:$C$5</c:f>
+              <c:f>'RQ1'!$C$30:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -9686,7 +9428,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7850-48BB-A917-B67A84F910DD}"/>
+              <c16:uniqueId val="{00000000-1D71-4D4B-8623-48083671E3C8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10115,7 +9857,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Q2.1'!$B$3:$B$7</c:f>
+              <c:f>'RQ2'!$B$3:$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -10138,7 +9880,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Q2.1'!$C$3:$C$7</c:f>
+              <c:f>'RQ2'!$C$3:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -10592,7 +10334,7 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Q2.2'!$B$40:$C$53</c:f>
+              <c:f>'RQ2'!$B$70:$C$83</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="14"/>
                 <c:lvl>
@@ -10661,7 +10403,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Q2.2'!$D$40:$D$53</c:f>
+              <c:f>'RQ2'!$D$70:$D$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -10712,13 +10454,14 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E71B-483A-9527-5263D08584FC}"/>
+              <c16:uniqueId val="{00000000-9E84-4A1D-8609-B9AC1FE4FFBB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -11061,7 +10804,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11077,7 +10820,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Q2.3'!$C$15</c:f>
+              <c:f>'RQ3'!$C$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11153,7 +10896,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Q2.3'!$B$16:$B$21</c:f>
+              <c:f>'RQ3'!$B$16:$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -11179,7 +10922,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Q2.3'!$C$16:$C$21</c:f>
+              <c:f>'RQ3'!$C$16:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -11632,7 +11375,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Q3.1'!$B$3:$B$5</c:f>
+              <c:f>'RQ4'!$B$3:$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -11649,7 +11392,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Q3.1'!$C$3:$C$5</c:f>
+              <c:f>'RQ4'!$C$3:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -12091,7 +11834,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Q3.2'!$B$3:$B$7</c:f>
+              <c:f>'RQ4'!$M$3:$M$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -12114,7 +11857,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Q3.2'!$C$3:$C$7</c:f>
+              <c:f>'RQ4'!$N$3:$N$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -12138,7 +11881,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A568-49BD-A7FD-1778A18BADE7}"/>
+              <c16:uniqueId val="{00000000-6AE5-44C3-824B-2E2D3F68ADC2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -16382,30 +16125,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>42863</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>728870</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{810B00EF-3EBA-4244-923A-BF908017D7C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5647FC69-A846-454D-8EEE-C3D7B6E8A4E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16419,7 +16157,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -16428,62 +16166,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Graphic 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F00C9D47-022B-495E-B3E3-B0A28FAC9AAF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11020425" y="2095500"/>
-          <a:ext cx="6296025" cy="2457450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -16523,30 +16206,25 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>-1</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>155864</xdr:rowOff>
+      <xdr:colOff>588818</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>202216</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>188462</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>242048</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>62534</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
+        <xdr:cNvPr id="3" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF67F4D-66D9-4BF1-8AB1-262058FCA9B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71C23DCE-9EE1-4293-9A94-0111800890C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16560,7 +16238,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -16569,7 +16247,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -16612,7 +16290,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -16652,30 +16330,25 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>33338</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>82826</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{357A5C0B-88CB-424E-AD4A-C677E1249065}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAB24F62-5540-4FAB-B6F8-C3D589ACE4CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16689,7 +16362,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -16699,41 +16372,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{5004AC40-8BA5-4ED6-9E79-7371211AFA3E}" name="Table21" displayName="Table21" ref="A2:T258" totalsRowShown="0" headerRowDxfId="172" dataDxfId="171">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{5004AC40-8BA5-4ED6-9E79-7371211AFA3E}" name="Table21" displayName="Table21" ref="A2:T258" totalsRowShown="0" headerRowDxfId="159" dataDxfId="158">
   <autoFilter ref="A2:T258" xr:uid="{5004AC40-8BA5-4ED6-9E79-7371211AFA3E}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{F6522AC6-DEFB-4E8F-9738-FE53C433C3DA}" name="Authors" dataDxfId="170"/>
-    <tableColumn id="2" xr3:uid="{0734E8F5-8143-40EB-8BF8-A60DE9C32633}" name="Author full names" dataDxfId="169"/>
-    <tableColumn id="3" xr3:uid="{FB39A068-EC39-4454-97BF-9A49697FCEB4}" name="Author(s) ID" dataDxfId="168"/>
-    <tableColumn id="4" xr3:uid="{07E75C93-09F2-48A0-AE0A-D7C2EB67BE79}" name="Title" dataDxfId="167"/>
-    <tableColumn id="5" xr3:uid="{531D561B-0D68-4A89-85F2-25574FD56530}" name="Year" dataDxfId="166"/>
-    <tableColumn id="6" xr3:uid="{93AA98B2-C4E8-4D9C-A9CB-09399D3A92FA}" name="Source title" dataDxfId="165"/>
-    <tableColumn id="7" xr3:uid="{C751A8BE-53BF-481F-BC1C-7081697FCA2D}" name="Volume" dataDxfId="164"/>
-    <tableColumn id="8" xr3:uid="{0FEA69EC-EC69-44EA-BF4B-4339BB03C99D}" name="Issue" dataDxfId="163"/>
-    <tableColumn id="9" xr3:uid="{5DF82281-8E52-475A-A4AA-C898DE4663A1}" name="Art. No." dataDxfId="162"/>
-    <tableColumn id="10" xr3:uid="{63D5F0C6-471F-4CA2-A0D3-DEA456AA9B22}" name="Page start" dataDxfId="161"/>
-    <tableColumn id="11" xr3:uid="{131F8873-1D0E-4A48-8389-D953CD15C9E7}" name="Page end" dataDxfId="160"/>
-    <tableColumn id="12" xr3:uid="{A26CA5ED-FAD3-429F-9E0C-F7095C274E16}" name="Page count" dataDxfId="159"/>
-    <tableColumn id="13" xr3:uid="{CCB13C01-CCE2-4524-A54D-C21DF50ED19D}" name="Cited by" dataDxfId="158"/>
-    <tableColumn id="14" xr3:uid="{939B34D2-ABAA-4BC2-AD01-6C4BE47F4E40}" name="DOI" dataDxfId="157"/>
-    <tableColumn id="15" xr3:uid="{46914630-4217-48AF-82F0-60EDE5C99FB7}" name="Link" dataDxfId="156"/>
-    <tableColumn id="16" xr3:uid="{BE1721A1-6AFA-49CF-AE0C-C33AAB967D8F}" name="Document Type" dataDxfId="155"/>
-    <tableColumn id="17" xr3:uid="{1927D17F-0255-453D-8A0E-DF4535CF2F01}" name="Publication Stage" dataDxfId="154"/>
-    <tableColumn id="18" xr3:uid="{9C2CF1E0-9063-414D-9105-9ADF7FB67932}" name="Open Access" dataDxfId="153"/>
-    <tableColumn id="19" xr3:uid="{A5ADB9E8-F0D6-48D8-B6C6-A69B5AB4A0E3}" name="Source" dataDxfId="152"/>
-    <tableColumn id="20" xr3:uid="{303E2E2A-2701-41A1-8F15-27C27D62036C}" name="EID" dataDxfId="151"/>
+    <tableColumn id="1" xr3:uid="{F6522AC6-DEFB-4E8F-9738-FE53C433C3DA}" name="Authors" dataDxfId="157"/>
+    <tableColumn id="2" xr3:uid="{0734E8F5-8143-40EB-8BF8-A60DE9C32633}" name="Author full names" dataDxfId="156"/>
+    <tableColumn id="3" xr3:uid="{FB39A068-EC39-4454-97BF-9A49697FCEB4}" name="Author(s) ID" dataDxfId="155"/>
+    <tableColumn id="4" xr3:uid="{07E75C93-09F2-48A0-AE0A-D7C2EB67BE79}" name="Title" dataDxfId="154"/>
+    <tableColumn id="5" xr3:uid="{531D561B-0D68-4A89-85F2-25574FD56530}" name="Year" dataDxfId="153"/>
+    <tableColumn id="6" xr3:uid="{93AA98B2-C4E8-4D9C-A9CB-09399D3A92FA}" name="Source title" dataDxfId="152"/>
+    <tableColumn id="7" xr3:uid="{C751A8BE-53BF-481F-BC1C-7081697FCA2D}" name="Volume" dataDxfId="151"/>
+    <tableColumn id="8" xr3:uid="{0FEA69EC-EC69-44EA-BF4B-4339BB03C99D}" name="Issue" dataDxfId="150"/>
+    <tableColumn id="9" xr3:uid="{5DF82281-8E52-475A-A4AA-C898DE4663A1}" name="Art. No." dataDxfId="149"/>
+    <tableColumn id="10" xr3:uid="{63D5F0C6-471F-4CA2-A0D3-DEA456AA9B22}" name="Page start" dataDxfId="148"/>
+    <tableColumn id="11" xr3:uid="{131F8873-1D0E-4A48-8389-D953CD15C9E7}" name="Page end" dataDxfId="147"/>
+    <tableColumn id="12" xr3:uid="{A26CA5ED-FAD3-429F-9E0C-F7095C274E16}" name="Page count" dataDxfId="146"/>
+    <tableColumn id="13" xr3:uid="{CCB13C01-CCE2-4524-A54D-C21DF50ED19D}" name="Cited by" dataDxfId="145"/>
+    <tableColumn id="14" xr3:uid="{939B34D2-ABAA-4BC2-AD01-6C4BE47F4E40}" name="DOI" dataDxfId="144"/>
+    <tableColumn id="15" xr3:uid="{46914630-4217-48AF-82F0-60EDE5C99FB7}" name="Link" dataDxfId="143"/>
+    <tableColumn id="16" xr3:uid="{BE1721A1-6AFA-49CF-AE0C-C33AAB967D8F}" name="Document Type" dataDxfId="142"/>
+    <tableColumn id="17" xr3:uid="{1927D17F-0255-453D-8A0E-DF4535CF2F01}" name="Publication Stage" dataDxfId="141"/>
+    <tableColumn id="18" xr3:uid="{9C2CF1E0-9063-414D-9105-9ADF7FB67932}" name="Open Access" dataDxfId="140"/>
+    <tableColumn id="19" xr3:uid="{A5ADB9E8-F0D6-48D8-B6C6-A69B5AB4A0E3}" name="Source" dataDxfId="139"/>
+    <tableColumn id="20" xr3:uid="{303E2E2A-2701-41A1-8F15-27C27D62036C}" name="EID" dataDxfId="138"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{E09A25E3-891D-4E61-818E-673A6CAAE926}" name="Table11" displayName="Table11" ref="B2:C7" totalsRowShown="0" headerRowDxfId="79" headerRowBorderDxfId="78" tableBorderDxfId="77" totalsRowBorderDxfId="76">
-  <autoFilter ref="B2:C7" xr:uid="{E09A25E3-891D-4E61-818E-673A6CAAE926}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3038F329-8D8E-4141-9D5C-29D46963B377}" name="SDLC Phase" dataDxfId="75"/>
-    <tableColumn id="2" xr3:uid="{2EBA13EA-9CE2-4B37-B937-51055D4FCA07}" name="Applications" dataDxfId="74">
-      <calculatedColumnFormula array="1">_xlfn.TEXTJOIN(",", TRUE, _xlfn.UNIQUE(_xlfn._xlws.FILTER('Data extraction form'!$H$2:$H$9999, 'Data extraction form'!$G$2:$G$9999=B3, "No hay datos")))</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6A5C8723-0423-4844-B33A-E636584CEABA}" name="Table137" displayName="Table137" ref="B40:D42" totalsRowShown="0" headerRowDxfId="33">
+  <autoFilter ref="B40:D42" xr:uid="{6A5C8723-0423-4844-B33A-E636584CEABA}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{3BB4185D-A4CB-4F84-9F3A-DBFE2EC34750}" name="Application" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{423E9FF9-336F-4151-A2BA-56953277F6E8}" name="Number documents" dataDxfId="31">
+      <calculatedColumnFormula array="1">COUNTA(_xlfn._xlws.FILTER(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ","), _xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ",")=B41))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{29F76220-4464-4A80-9A67-799E40E891D6}" name="Percentage" dataDxfId="30">
+      <calculatedColumnFormula>(C41/SUM(Table137[Number documents]))*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -16741,15 +16417,15 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{760EBC0A-0527-43DF-8060-637CAB609F09}" name="Table13" displayName="Table13" ref="B10:D12" totalsRowShown="0" headerRowDxfId="73">
-  <autoFilter ref="B10:D12" xr:uid="{760EBC0A-0527-43DF-8060-637CAB609F09}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3AB71CA6-17E0-4791-9B9B-CBF77EC32397}" name="Table13188" displayName="Table13188" ref="B45:D47" totalsRowShown="0" headerRowDxfId="29">
+  <autoFilter ref="B45:D47" xr:uid="{3AB71CA6-17E0-4791-9B9B-CBF77EC32397}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B6440E39-F1A7-412C-A2F3-1525ADA4AF18}" name="Application" dataDxfId="72"/>
-    <tableColumn id="2" xr3:uid="{40526AAC-042C-4C7E-82EE-109C311BD217}" name="Number documents" dataDxfId="71">
-      <calculatedColumnFormula array="1">COUNTA(_xlfn._xlws.FILTER(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ","), _xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ",")=B11))</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{7FBD752A-3ED3-4C2F-915A-314410E684C2}" name="Application" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{0CB78543-79D5-4316-AC4E-33521C7F8C31}" name="Number documents" dataDxfId="27">
+      <calculatedColumnFormula array="1">COUNTA(_xlfn._xlws.FILTER(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ","), _xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ",")=B46))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{4D89C8F4-9FF8-4C30-9C34-65DF78F8D686}" name="Percentage" dataDxfId="70">
-      <calculatedColumnFormula>(C11/SUM(Table13[Number documents]))*100</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{E704B195-0131-4B1C-8CE8-FEF560CFACD8}" name="Percentage" dataDxfId="26">
+      <calculatedColumnFormula>(C46/SUM(Table13188[Number documents]))*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -16757,15 +16433,15 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{2E18B90F-D6E3-4455-889B-ACBD870C49BD}" name="Table1318" displayName="Table1318" ref="B15:D17" totalsRowShown="0" headerRowDxfId="69">
-  <autoFilter ref="B15:D17" xr:uid="{2E18B90F-D6E3-4455-889B-ACBD870C49BD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{8B367931-FFF4-47BF-BAF9-737014DAD2FC}" name="Table1318199" displayName="Table1318199" ref="B50:D56" totalsRowShown="0" headerRowDxfId="25">
+  <autoFilter ref="B50:D56" xr:uid="{8B367931-FFF4-47BF-BAF9-737014DAD2FC}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D9D8BCA0-0849-4255-A324-933851F0198F}" name="Application" dataDxfId="68"/>
-    <tableColumn id="2" xr3:uid="{444EB887-0AC4-4A63-9355-A70191837B91}" name="Number documents" dataDxfId="67">
-      <calculatedColumnFormula array="1">COUNTA(_xlfn._xlws.FILTER(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ","), _xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ",")=B16))</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{5C4D0BD5-CDFC-4770-AD83-00FB9AC49261}" name="Application" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{45CB6C2F-1D6B-4B18-AD11-C3FAC26D2990}" name="Number documents" dataDxfId="23">
+      <calculatedColumnFormula array="1">COUNTA(_xlfn._xlws.FILTER(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ","), _xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ",")=B51))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DE236FC3-44BF-477E-A39C-09708BE4788F}" name="Percentage" dataDxfId="66">
-      <calculatedColumnFormula>(C16/SUM(Table1318[Number documents]))*100</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{B65F2DA9-4D17-429F-8886-88877D84B4C5}" name="Percentage" dataDxfId="22">
+      <calculatedColumnFormula>(C51/SUM(Table1318199[Number documents]))*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -16773,15 +16449,15 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{3CF7BF7D-BBEC-4BF9-B328-807CEE858A39}" name="Table131819" displayName="Table131819" ref="B20:D26" totalsRowShown="0" headerRowDxfId="65">
-  <autoFilter ref="B20:D26" xr:uid="{3CF7BF7D-BBEC-4BF9-B328-807CEE858A39}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E7D67119-D141-4857-A5E5-75D72C8D3460}" name="Table2011" displayName="Table2011" ref="B59:D61" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
+  <autoFilter ref="B59:D61" xr:uid="{E7D67119-D141-4857-A5E5-75D72C8D3460}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5046AC4A-F452-4C95-99C3-EAF5E396F4D2}" name="Application" dataDxfId="64"/>
-    <tableColumn id="2" xr3:uid="{02F0502D-8C33-4276-A8F5-867AE0C63C2D}" name="Number documents" dataDxfId="63">
-      <calculatedColumnFormula array="1">COUNTA(_xlfn._xlws.FILTER(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ","), _xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ",")=B21))</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{21345E93-DB17-4ED8-9C8D-092B402E18DC}" name="Application" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{CAF4DBFE-37FF-4BB9-827C-44216046B560}" name="Number documents" dataDxfId="16">
+      <calculatedColumnFormula array="1">COUNTA(_xlfn._xlws.FILTER(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ","), _xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ",")=B60))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{88211CE4-E628-412B-8125-7525FE7AB628}" name="Percentage" dataDxfId="62">
-      <calculatedColumnFormula>(C21/SUM(Table131819[Number documents]))*100</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{C30A73A9-A9DA-4639-B59F-26B9DD86AED3}" name="Percentage" dataDxfId="15">
+      <calculatedColumnFormula>(C60/SUM(Table1318199[Number documents]))*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -16789,15 +16465,15 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{BAF74030-4A84-48D9-9BA7-C6934E869769}" name="Table20" displayName="Table20" ref="B29:D31" totalsRowShown="0" headerRowDxfId="61" headerRowBorderDxfId="60" tableBorderDxfId="59" totalsRowBorderDxfId="58">
-  <autoFilter ref="B29:D31" xr:uid="{BAF74030-4A84-48D9-9BA7-C6934E869769}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{B6FFD054-3A7E-4E9A-9029-C51304F6BE98}" name="Table202713" displayName="Table202713" ref="B64:D66" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+  <autoFilter ref="B64:D66" xr:uid="{B6FFD054-3A7E-4E9A-9029-C51304F6BE98}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{934A3C83-FF8F-4DB9-8350-1C519826A36C}" name="Application" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{321D15E4-AD74-4CBB-B848-4CA80FD236C7}" name="Number documents" dataDxfId="56">
-      <calculatedColumnFormula array="1">COUNTA(_xlfn._xlws.FILTER(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ","), _xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ",")=B30))</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{7351AAAC-5999-447D-B681-29868CF1F4B5}" name="Application" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{B1F848F5-C8D8-470D-BFB9-EDFECE868462}" name="Number documents" dataDxfId="9">
+      <calculatedColumnFormula array="1">COUNTA(_xlfn._xlws.FILTER(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ","), _xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ",")=B65))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{72BA8D47-6227-4BD2-B236-FE6351055E4B}" name="Percentage" dataDxfId="55">
-      <calculatedColumnFormula>(C30/SUM(Table131819[Number documents]))*100</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{2A98AD6D-E317-4BC2-86A0-E4A017341019}" name="Percentage" dataDxfId="8">
+      <calculatedColumnFormula>(C65/SUM(Table1318199[Number documents]))*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -16805,15 +16481,12 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{706ADD2A-A885-456E-904F-69874DEC5CBE}" name="Table2027" displayName="Table2027" ref="B34:D36" totalsRowShown="0" headerRowDxfId="54" headerRowBorderDxfId="53" tableBorderDxfId="52" totalsRowBorderDxfId="51">
-  <autoFilter ref="B34:D36" xr:uid="{706ADD2A-A885-456E-904F-69874DEC5CBE}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A7AE853E-675E-4269-A349-68EC7FB8BA0B}" name="Application" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{7506AD8A-DD0F-4240-801B-78662971518C}" name="Number documents" dataDxfId="49">
-      <calculatedColumnFormula array="1">COUNTA(_xlfn._xlws.FILTER(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ","), _xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ",")=B35))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{B813716D-6648-4C33-A2C8-0FAAEF306544}" name="Percentage" dataDxfId="48">
-      <calculatedColumnFormula>(C35/SUM(Table131819[Number documents]))*100</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C2970127-7C12-4279-AD86-C02AB90C1A75}" name="Table3" displayName="Table3" ref="B15:C21" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84" tableBorderDxfId="83">
+  <autoFilter ref="B15:C21" xr:uid="{C2970127-7C12-4279-AD86-C02AB90C1A75}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{2508C149-E3F7-4137-8892-9DFEEA7948B6}" name="Types" dataDxfId="82"/>
+    <tableColumn id="2" xr3:uid="{5D524A6B-02B1-4A6E-B751-8FE29B7802F7}" name="Number of studies" dataDxfId="81">
+      <calculatedColumnFormula array="1">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$12, ","), 'Data extraction form'!$K$2:$K$9999)), ROW('Data extraction form'!$K$2:$K$9999)), ROW('Data extraction form'!$K$2:$K$9999)) &gt; 0, 1))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -16821,12 +16494,12 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C2970127-7C12-4279-AD86-C02AB90C1A75}" name="Table3" displayName="Table3" ref="B15:C21" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46" tableBorderDxfId="45">
-  <autoFilter ref="B15:C21" xr:uid="{C2970127-7C12-4279-AD86-C02AB90C1A75}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{049E2ABE-79D7-4207-BDB6-882CF26BF320}" name="Table36" displayName="Table36" ref="B25:C31" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79" tableBorderDxfId="78">
+  <autoFilter ref="B25:C31" xr:uid="{049E2ABE-79D7-4207-BDB6-882CF26BF320}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{2508C149-E3F7-4137-8892-9DFEEA7948B6}" name="Types" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{5D524A6B-02B1-4A6E-B751-8FE29B7802F7}" name="Number of studies" dataDxfId="43">
-      <calculatedColumnFormula array="1">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$12, ","), 'Data extraction form'!$K$2:$K$9999)), ROW('Data extraction form'!$K$2:$K$9999)), ROW('Data extraction form'!$K$2:$K$9999)) &gt; 0, 1))</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{C8CEFC44-D385-485D-8E2E-C4C135C5E0F6}" name="Types" dataDxfId="77"/>
+    <tableColumn id="2" xr3:uid="{8DAACFE0-5D60-4BF4-B0E8-8BFC7453441E}" name="Number of studies" dataDxfId="76">
+      <calculatedColumnFormula array="1">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$6, ","), _xlfn._xlws.FILTER(#REF!, ISNUMBER( SEARCH(B21,#REF!))))), _xlfn._xlws.FILTER(ROW(#REF!),ISNUMBER(SEARCH(B21,#REF!)))), _xlfn._xlws.FILTER(ROW(#REF!),ISNUMBER(SEARCH(B21,#REF!)))) &gt; 0, 1))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -16834,12 +16507,12 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{049E2ABE-79D7-4207-BDB6-882CF26BF320}" name="Table36" displayName="Table36" ref="B25:C31" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41" tableBorderDxfId="40">
-  <autoFilter ref="B25:C31" xr:uid="{049E2ABE-79D7-4207-BDB6-882CF26BF320}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="44" xr:uid="{1FCE5A35-FC8F-43B6-A862-37DD8BFC32DC}" name="Table3645" displayName="Table3645" ref="B34:C40" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74" tableBorderDxfId="73">
+  <autoFilter ref="B34:C40" xr:uid="{1FCE5A35-FC8F-43B6-A862-37DD8BFC32DC}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C8CEFC44-D385-485D-8E2E-C4C135C5E0F6}" name="Types" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{8DAACFE0-5D60-4BF4-B0E8-8BFC7453441E}" name="Number of studies" dataDxfId="38">
-      <calculatedColumnFormula array="1">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$6, ","), _xlfn._xlws.FILTER(#REF!, ISNUMBER( SEARCH(B21,#REF!))))), _xlfn._xlws.FILTER(ROW(#REF!),ISNUMBER(SEARCH(B21,#REF!)))), _xlfn._xlws.FILTER(ROW(#REF!),ISNUMBER(SEARCH(B21,#REF!)))) &gt; 0, 1))</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{50F3E094-AE66-42AB-9A50-A5B4413856BC}" name="Types" dataDxfId="72"/>
+    <tableColumn id="2" xr3:uid="{E4474A70-5340-47D0-9436-A5E7D5411B53}" name="Number of studies" dataDxfId="71">
+      <calculatedColumnFormula array="1">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$6, ","), _xlfn._xlws.FILTER(#REF!, ISNUMBER( SEARCH(B30,#REF!))))), _xlfn._xlws.FILTER(ROW(#REF!),ISNUMBER(SEARCH(B30,#REF!)))), _xlfn._xlws.FILTER(ROW(#REF!),ISNUMBER(SEARCH(B30,#REF!)))) &gt; 0, 1))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -16847,12 +16520,12 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="44" xr:uid="{1FCE5A35-FC8F-43B6-A862-37DD8BFC32DC}" name="Table3645" displayName="Table3645" ref="B34:C40" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36" tableBorderDxfId="35">
-  <autoFilter ref="B34:C40" xr:uid="{1FCE5A35-FC8F-43B6-A862-37DD8BFC32DC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="45" xr:uid="{9F28E268-194C-4193-9262-D51E4A6216C6}" name="Table3646" displayName="Table3646" ref="B43:C49" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69" tableBorderDxfId="68">
+  <autoFilter ref="B43:C49" xr:uid="{9F28E268-194C-4193-9262-D51E4A6216C6}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{50F3E094-AE66-42AB-9A50-A5B4413856BC}" name="Types" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{E4474A70-5340-47D0-9436-A5E7D5411B53}" name="Number of studies" dataDxfId="33">
-      <calculatedColumnFormula array="1">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$6, ","), _xlfn._xlws.FILTER(#REF!, ISNUMBER( SEARCH(B30,#REF!))))), _xlfn._xlws.FILTER(ROW(#REF!),ISNUMBER(SEARCH(B30,#REF!)))), _xlfn._xlws.FILTER(ROW(#REF!),ISNUMBER(SEARCH(B30,#REF!)))) &gt; 0, 1))</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{FF788980-EE61-4DB4-9920-49B429BD98C4}" name="Types" dataDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{F5B4D4EC-FB7F-4E55-AEAA-7D1A45A8DFE9}" name="Number of studies" dataDxfId="66">
+      <calculatedColumnFormula array="1">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$6, ","), _xlfn._xlws.FILTER(#REF!, ISNUMBER( SEARCH(B39,#REF!))))), _xlfn._xlws.FILTER(ROW(#REF!),ISNUMBER(SEARCH(B39,#REF!)))), _xlfn._xlws.FILTER(ROW(#REF!),ISNUMBER(SEARCH(B39,#REF!)))) &gt; 0, 1))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -16860,12 +16533,12 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="45" xr:uid="{9F28E268-194C-4193-9262-D51E4A6216C6}" name="Table3646" displayName="Table3646" ref="B43:C49" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31" tableBorderDxfId="30">
-  <autoFilter ref="B43:C49" xr:uid="{9F28E268-194C-4193-9262-D51E4A6216C6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="46" xr:uid="{0AC8D0C4-D08B-4B32-88CD-F59BE46822A6}" name="Table3647" displayName="Table3647" ref="B52:C58" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64" tableBorderDxfId="63">
+  <autoFilter ref="B52:C58" xr:uid="{0AC8D0C4-D08B-4B32-88CD-F59BE46822A6}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{FF788980-EE61-4DB4-9920-49B429BD98C4}" name="Types" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{F5B4D4EC-FB7F-4E55-AEAA-7D1A45A8DFE9}" name="Number of studies" dataDxfId="28">
-      <calculatedColumnFormula array="1">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$6, ","), _xlfn._xlws.FILTER(#REF!, ISNUMBER( SEARCH(B39,#REF!))))), _xlfn._xlws.FILTER(ROW(#REF!),ISNUMBER(SEARCH(B39,#REF!)))), _xlfn._xlws.FILTER(ROW(#REF!),ISNUMBER(SEARCH(B39,#REF!)))) &gt; 0, 1))</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{412B1347-2B08-4D15-9909-772D7B90E44E}" name="Types" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{1712BF31-4A98-4CC5-B015-35D8D1FB7BD2}" name="Number of studies" dataDxfId="61">
+      <calculatedColumnFormula array="1">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$6, ","), _xlfn._xlws.FILTER(#REF!, ISNUMBER( SEARCH(B48,#REF!))))), _xlfn._xlws.FILTER(ROW(#REF!),ISNUMBER(SEARCH(B48,#REF!)))), _xlfn._xlws.FILTER(ROW(#REF!),ISNUMBER(SEARCH(B48,#REF!)))) &gt; 0, 1))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -16873,41 +16546,41 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{428161DB-ACAF-42B8-AFD9-E79A9ADB6624}" name="Table22" displayName="Table22" ref="A1:T57" totalsRowShown="0" headerRowDxfId="150" dataDxfId="148" headerRowBorderDxfId="149" tableBorderDxfId="147">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{428161DB-ACAF-42B8-AFD9-E79A9ADB6624}" name="Table22" displayName="Table22" ref="A1:T57" totalsRowShown="0" headerRowDxfId="137" dataDxfId="135" headerRowBorderDxfId="136" tableBorderDxfId="134">
   <autoFilter ref="A1:T57" xr:uid="{428161DB-ACAF-42B8-AFD9-E79A9ADB6624}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{33881B02-BC45-4C8F-9835-9DD8D27BB55C}" name="Authors" dataDxfId="146"/>
-    <tableColumn id="2" xr3:uid="{BCD8BD15-FD15-48BD-A4BB-4099EDF90BFE}" name="Author full names" dataDxfId="145"/>
-    <tableColumn id="3" xr3:uid="{2814F9B4-AAF1-4046-BDE4-8F82E3662EC2}" name="Author(s) ID" dataDxfId="144"/>
-    <tableColumn id="4" xr3:uid="{D28CDB7D-4FCF-4BA7-8653-C29312D888E1}" name="Title" dataDxfId="143"/>
-    <tableColumn id="5" xr3:uid="{DEDAD150-71FB-4AC5-B680-0F1E0F9F0FCA}" name="Year" dataDxfId="142"/>
-    <tableColumn id="6" xr3:uid="{FA3E8087-FBD9-487C-AA8B-4A40C6D99EE1}" name="Source title" dataDxfId="141"/>
-    <tableColumn id="7" xr3:uid="{17051911-AC48-4395-B612-EE0BD25D54FA}" name="Volume" dataDxfId="140"/>
-    <tableColumn id="8" xr3:uid="{C5B3D66E-6884-42CD-A528-3E7747FA7F06}" name="Issue" dataDxfId="139"/>
-    <tableColumn id="9" xr3:uid="{5BAB8E1F-C025-4249-810A-2778E6799963}" name="Art. No." dataDxfId="138"/>
-    <tableColumn id="10" xr3:uid="{2C956FDA-8D50-46EE-9F6D-D25988995530}" name="Page start" dataDxfId="137"/>
-    <tableColumn id="11" xr3:uid="{57BBB68D-1046-4AAA-A386-96F684624B63}" name="Page end" dataDxfId="136"/>
-    <tableColumn id="12" xr3:uid="{F308570F-0120-4AF7-8FB6-D0A598AB03CF}" name="Page count" dataDxfId="135"/>
-    <tableColumn id="13" xr3:uid="{5D5F08E5-D1FE-4EE4-B561-16228E07F02F}" name="Cited by" dataDxfId="134"/>
-    <tableColumn id="14" xr3:uid="{3B6999B5-01AA-442A-B7F2-EB53F7293818}" name="DOI" dataDxfId="133"/>
-    <tableColumn id="15" xr3:uid="{2D28DB15-E904-473F-815F-2B932135F315}" name="Link" dataDxfId="132"/>
-    <tableColumn id="16" xr3:uid="{0FB0573B-F125-4E07-888D-9ED2BFDF18F4}" name="Document Type" dataDxfId="131"/>
-    <tableColumn id="17" xr3:uid="{9407413B-0722-4479-8E4D-B499FBC803CA}" name="Publication Stage" dataDxfId="130"/>
-    <tableColumn id="18" xr3:uid="{584880F5-631C-4098-AE99-321D1F5FD090}" name="Open Access" dataDxfId="129"/>
-    <tableColumn id="19" xr3:uid="{514D2944-F8CC-4B17-8DB3-35669B19E3ED}" name="Source" dataDxfId="128"/>
-    <tableColumn id="20" xr3:uid="{7135E142-116F-4104-B909-484DD75E9628}" name="EID" dataDxfId="127"/>
+    <tableColumn id="1" xr3:uid="{33881B02-BC45-4C8F-9835-9DD8D27BB55C}" name="Authors" dataDxfId="133"/>
+    <tableColumn id="2" xr3:uid="{BCD8BD15-FD15-48BD-A4BB-4099EDF90BFE}" name="Author full names" dataDxfId="132"/>
+    <tableColumn id="3" xr3:uid="{2814F9B4-AAF1-4046-BDE4-8F82E3662EC2}" name="Author(s) ID" dataDxfId="131"/>
+    <tableColumn id="4" xr3:uid="{D28CDB7D-4FCF-4BA7-8653-C29312D888E1}" name="Title" dataDxfId="130"/>
+    <tableColumn id="5" xr3:uid="{DEDAD150-71FB-4AC5-B680-0F1E0F9F0FCA}" name="Year" dataDxfId="129"/>
+    <tableColumn id="6" xr3:uid="{FA3E8087-FBD9-487C-AA8B-4A40C6D99EE1}" name="Source title" dataDxfId="128"/>
+    <tableColumn id="7" xr3:uid="{17051911-AC48-4395-B612-EE0BD25D54FA}" name="Volume" dataDxfId="127"/>
+    <tableColumn id="8" xr3:uid="{C5B3D66E-6884-42CD-A528-3E7747FA7F06}" name="Issue" dataDxfId="126"/>
+    <tableColumn id="9" xr3:uid="{5BAB8E1F-C025-4249-810A-2778E6799963}" name="Art. No." dataDxfId="125"/>
+    <tableColumn id="10" xr3:uid="{2C956FDA-8D50-46EE-9F6D-D25988995530}" name="Page start" dataDxfId="124"/>
+    <tableColumn id="11" xr3:uid="{57BBB68D-1046-4AAA-A386-96F684624B63}" name="Page end" dataDxfId="123"/>
+    <tableColumn id="12" xr3:uid="{F308570F-0120-4AF7-8FB6-D0A598AB03CF}" name="Page count" dataDxfId="122"/>
+    <tableColumn id="13" xr3:uid="{5D5F08E5-D1FE-4EE4-B561-16228E07F02F}" name="Cited by" dataDxfId="121"/>
+    <tableColumn id="14" xr3:uid="{3B6999B5-01AA-442A-B7F2-EB53F7293818}" name="DOI" dataDxfId="120"/>
+    <tableColumn id="15" xr3:uid="{2D28DB15-E904-473F-815F-2B932135F315}" name="Link" dataDxfId="119"/>
+    <tableColumn id="16" xr3:uid="{0FB0573B-F125-4E07-888D-9ED2BFDF18F4}" name="Document Type" dataDxfId="118"/>
+    <tableColumn id="17" xr3:uid="{9407413B-0722-4479-8E4D-B499FBC803CA}" name="Publication Stage" dataDxfId="117"/>
+    <tableColumn id="18" xr3:uid="{584880F5-631C-4098-AE99-321D1F5FD090}" name="Open Access" dataDxfId="116"/>
+    <tableColumn id="19" xr3:uid="{514D2944-F8CC-4B17-8DB3-35669B19E3ED}" name="Source" dataDxfId="115"/>
+    <tableColumn id="20" xr3:uid="{7135E142-116F-4104-B909-484DD75E9628}" name="EID" dataDxfId="114"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="46" xr:uid="{0AC8D0C4-D08B-4B32-88CD-F59BE46822A6}" name="Table3647" displayName="Table3647" ref="B52:C58" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" tableBorderDxfId="25">
-  <autoFilter ref="B52:C58" xr:uid="{0AC8D0C4-D08B-4B32-88CD-F59BE46822A6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="47" xr:uid="{3552C961-8298-4698-9674-373DB58ECB00}" name="Table3648" displayName="Table3648" ref="B61:C67" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59" tableBorderDxfId="58">
+  <autoFilter ref="B61:C67" xr:uid="{3552C961-8298-4698-9674-373DB58ECB00}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{412B1347-2B08-4D15-9909-772D7B90E44E}" name="Types" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{1712BF31-4A98-4CC5-B015-35D8D1FB7BD2}" name="Number of studies" dataDxfId="23">
-      <calculatedColumnFormula array="1">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$6, ","), _xlfn._xlws.FILTER(#REF!, ISNUMBER( SEARCH(B48,#REF!))))), _xlfn._xlws.FILTER(ROW(#REF!),ISNUMBER(SEARCH(B48,#REF!)))), _xlfn._xlws.FILTER(ROW(#REF!),ISNUMBER(SEARCH(B48,#REF!)))) &gt; 0, 1))</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{B40A9F6B-C9C9-43C6-8246-3027662882D4}" name="Types" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{60FA3E42-D3C1-45A1-AE36-7024597C3A84}" name="Number of studies" dataDxfId="56">
+      <calculatedColumnFormula array="1">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$6, ","), _xlfn._xlws.FILTER(#REF!, ISNUMBER( SEARCH(B57,#REF!))))), _xlfn._xlws.FILTER(ROW(#REF!),ISNUMBER(SEARCH(B57,#REF!)))), _xlfn._xlws.FILTER(ROW(#REF!),ISNUMBER(SEARCH(B57,#REF!)))) &gt; 0, 1))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -16915,12 +16588,18 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="47" xr:uid="{3552C961-8298-4698-9674-373DB58ECB00}" name="Table3648" displayName="Table3648" ref="B61:C67" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" tableBorderDxfId="20">
-  <autoFilter ref="B61:C67" xr:uid="{3552C961-8298-4698-9674-373DB58ECB00}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B40A9F6B-C9C9-43C6-8246-3027662882D4}" name="Types" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{60FA3E42-D3C1-45A1-AE36-7024597C3A84}" name="Number of studies" dataDxfId="18">
-      <calculatedColumnFormula array="1">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$6, ","), _xlfn._xlws.FILTER(#REF!, ISNUMBER( SEARCH(B57,#REF!))))), _xlfn._xlws.FILTER(ROW(#REF!),ISNUMBER(SEARCH(B57,#REF!)))), _xlfn._xlws.FILTER(ROW(#REF!),ISNUMBER(SEARCH(B57,#REF!)))) &gt; 0, 1))</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="48" xr:uid="{E948BAA2-F0A1-467C-952A-26F26CC7B9BE}" name="Tabla4313249" displayName="Tabla4313249" ref="B2:D5" totalsRowShown="0" headerRowDxfId="55" dataDxfId="53" headerRowBorderDxfId="54" tableBorderDxfId="52" totalsRowBorderDxfId="51">
+  <autoFilter ref="B2:D5" xr:uid="{A1B60E13-099B-4C54-B9B9-4D3AF8C9D58C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D5">
+    <sortCondition ref="B22:B25"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{E7D6C9B4-DF56-43CB-9407-4C685B6A6A4C}" name="Contribution Facet" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{AC21739E-4106-4309-9FEB-12B159944066}" name="Number documents" dataDxfId="49">
+      <calculatedColumnFormula>COUNTIF('Data extraction form'!$I$2:$I$9999,B3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{2E8E8033-0577-4E1B-87D9-6E1414D19FD9}" name="Percentage (%)" dataDxfId="48">
+      <calculatedColumnFormula>(C3/SUM(Tabla4313249[Number documents]))*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -16928,37 +16607,18 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="48" xr:uid="{E948BAA2-F0A1-467C-952A-26F26CC7B9BE}" name="Tabla4313249" displayName="Tabla4313249" ref="B2:D5" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
-  <autoFilter ref="B2:D5" xr:uid="{A1B60E13-099B-4C54-B9B9-4D3AF8C9D58C}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D5">
-    <sortCondition ref="B22:B25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{6216713C-3B3C-4E2B-B47B-C8A3CE0FDCC7}" name="Tabla43132495014" displayName="Tabla43132495014" ref="M2:O7" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+  <autoFilter ref="M2:O7" xr:uid="{6216713C-3B3C-4E2B-B47B-C8A3CE0FDCC7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M3:O5">
+    <sortCondition ref="M22:M25"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E7D6C9B4-DF56-43CB-9407-4C685B6A6A4C}" name="Contribution Facet" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{AC21739E-4106-4309-9FEB-12B159944066}" name="Number documents" dataDxfId="11">
-      <calculatedColumnFormula>COUNTIF('Data extraction form'!$I$2:$I$9999,B3)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{E12BB6E6-A81C-425A-B512-FB10B3DE6AAB}" name="Research Strategy" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{F923CFAB-DD0A-4DC2-8B20-8472A5DC7149}" name="Number documents" dataDxfId="1">
+      <calculatedColumnFormula>COUNTIF('Data extraction form'!$L$2:$L$9999,M3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2E8E8033-0577-4E1B-87D9-6E1414D19FD9}" name="Percentage (%)" dataDxfId="10">
-      <calculatedColumnFormula>(C3/SUM(Tabla4313249[Number documents]))*100</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="49" xr:uid="{C805D1AC-250B-4C45-ADB7-8F88C5C843FD}" name="Tabla431324950" displayName="Tabla431324950" ref="B2:D7" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="B2:D7" xr:uid="{A1B60E13-099B-4C54-B9B9-4D3AF8C9D58C}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D5">
-    <sortCondition ref="B22:B25"/>
-  </sortState>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4A813DB9-45C6-4F5B-90CD-988E9819FFBD}" name="Research Strategy" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{0F6E2D45-2832-4440-B384-2821288EE737}" name="Number documents" dataDxfId="3">
-      <calculatedColumnFormula>COUNTIF('Data extraction form'!$L$2:$L$9999,B3)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{1A5C97D8-2166-48AF-8F45-3FA32B98D6E2}" name="Percentage (%)" dataDxfId="2">
-      <calculatedColumnFormula>(C3/SUM(Tabla431324950[Number documents]))*100</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{C5922DF3-88A8-4CF8-889F-D5F727D55684}" name="Percentage (%)" dataDxfId="0">
+      <calculatedColumnFormula>(N3/SUM(Tabla43132495014[Number documents]))*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -16966,7 +16626,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{0038CE81-DF00-4BEB-B2CC-2C68FEEDE63A}" name="Table27" displayName="Table27" ref="A1:T49" totalsRowShown="0" headerRowDxfId="126">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{0038CE81-DF00-4BEB-B2CC-2C68FEEDE63A}" name="Table27" displayName="Table27" ref="A1:T49" totalsRowShown="0" headerRowDxfId="113">
   <autoFilter ref="A1:T49" xr:uid="{0038CE81-DF00-4BEB-B2CC-2C68FEEDE63A}"/>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{C0E2120B-E711-40E8-87CA-871C1244028F}" name="Authors"/>
@@ -16995,7 +16655,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{130C1CD7-66C7-45B6-A9B2-6003DE6F12E9}" name="Table29" displayName="Table29" ref="A1:L49" totalsRowShown="0" headerRowDxfId="125">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{130C1CD7-66C7-45B6-A9B2-6003DE6F12E9}" name="Table29" displayName="Table29" ref="A1:L49" totalsRowShown="0" headerRowDxfId="112">
   <autoFilter ref="A1:L49" xr:uid="{130C1CD7-66C7-45B6-A9B2-6003DE6F12E9}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{73644A61-0BC9-407B-AE53-EAA37BA9DAB0}" name="Title"/>
@@ -17016,17 +16676,17 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{A1B60E13-099B-4C54-B9B9-4D3AF8C9D58C}" name="Tabla431" displayName="Tabla431" ref="B2:D5" totalsRowShown="0" headerRowDxfId="124" dataDxfId="122" headerRowBorderDxfId="123" tableBorderDxfId="121" totalsRowBorderDxfId="120">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{A1B60E13-099B-4C54-B9B9-4D3AF8C9D58C}" name="Tabla431" displayName="Tabla431" ref="B2:D5" totalsRowShown="0" headerRowDxfId="111" dataDxfId="109" headerRowBorderDxfId="110" tableBorderDxfId="108" totalsRowBorderDxfId="107">
   <autoFilter ref="B2:D5" xr:uid="{A1B60E13-099B-4C54-B9B9-4D3AF8C9D58C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D5">
     <sortCondition ref="B22:B25"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{85E3F388-183E-40E8-97A4-E7E4FE75B36B}" name="Year" dataDxfId="119"/>
-    <tableColumn id="2" xr3:uid="{8DAD522A-F5AA-41A5-B9F9-52ACF6A11210}" name="Number documents" dataDxfId="118">
+    <tableColumn id="1" xr3:uid="{85E3F388-183E-40E8-97A4-E7E4FE75B36B}" name="Year" dataDxfId="106"/>
+    <tableColumn id="2" xr3:uid="{8DAD522A-F5AA-41A5-B9F9-52ACF6A11210}" name="Number documents" dataDxfId="105">
       <calculatedColumnFormula>COUNTIF('Data extraction form'!$E$2:$E$9999,B3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1DB07F8A-9C8C-48A1-AA5A-2627CDA98034}" name="Percentage (%)" dataDxfId="117">
+    <tableColumn id="3" xr3:uid="{1DB07F8A-9C8C-48A1-AA5A-2627CDA98034}" name="Percentage (%)" dataDxfId="104">
       <calculatedColumnFormula>(C3/SUM(Tabla431[Number documents]))*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -17035,47 +16695,47 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{C4AD96BC-962C-4AE3-9CA6-4634B6D902DD}" name="Table5010" displayName="Table5010" ref="L2:S10" totalsRowShown="0" headerRowDxfId="116" dataDxfId="115">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{C4AD96BC-962C-4AE3-9CA6-4634B6D902DD}" name="Table5010" displayName="Table5010" ref="L2:S10" totalsRowShown="0" headerRowDxfId="103" dataDxfId="102">
   <autoFilter ref="L2:S10" xr:uid="{C4AD96BC-962C-4AE3-9CA6-4634B6D902DD}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{BE171548-A56E-4876-848F-BA8FA2DAF3E9}" name="Terms" dataDxfId="114"/>
-    <tableColumn id="2" xr3:uid="{198A6BD6-0B39-4A82-A1D2-F82559920948}" name="Title" dataDxfId="113">
+    <tableColumn id="1" xr3:uid="{BE171548-A56E-4876-848F-BA8FA2DAF3E9}" name="Terms" dataDxfId="101"/>
+    <tableColumn id="2" xr3:uid="{198A6BD6-0B39-4A82-A1D2-F82559920948}" name="Title" dataDxfId="100">
       <calculatedColumnFormula array="1">SUMPRODUCT(--ISNUMBER(SEARCH(L3, 'Data extraction form'!$A$2:$A$9999)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{AD1D8BEB-D2D4-4553-BDF0-DED08E1DB1C5}" name="Abstract" dataDxfId="112">
+    <tableColumn id="3" xr3:uid="{AD1D8BEB-D2D4-4553-BDF0-DED08E1DB1C5}" name="Abstract" dataDxfId="99">
       <calculatedColumnFormula array="1">SUMPRODUCT(--ISNUMBER(SEARCH(L3, 'Data extraction form'!$F$2:$F$9999)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D1A157B1-FDEA-4F26-80D7-036EE0F5D95E}" name="Author Keywords" dataDxfId="111">
+    <tableColumn id="4" xr3:uid="{D1A157B1-FDEA-4F26-80D7-036EE0F5D95E}" name="Author Keywords" dataDxfId="98">
       <calculatedColumnFormula array="1">SUMPRODUCT(--ISNUMBER(SEARCH(L3, 'Data extraction form'!$B$2:$B$9999)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{801E19FA-EE2F-4795-BEF1-7392DAE41D69}" name="Index Keywords" dataDxfId="110">
+    <tableColumn id="5" xr3:uid="{801E19FA-EE2F-4795-BEF1-7392DAE41D69}" name="Index Keywords" dataDxfId="97">
       <calculatedColumnFormula array="1">SUMPRODUCT(--ISNUMBER(SEARCH(L3, 'Data extraction form'!$C$2:$C$9999)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{E2C0A2DD-08DA-4591-B71D-14B0913FB30A}" name="Combination WITH repetitions" dataDxfId="109">
+    <tableColumn id="6" xr3:uid="{E2C0A2DD-08DA-4591-B71D-14B0913FB30A}" name="Combination WITH repetitions" dataDxfId="96">
       <calculatedColumnFormula array="1">SUMPRODUCT(--ISNUMBER(SEARCH(L3, 'Data extraction form'!$A$2:'Data extraction form'!$L$9999)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{7B984BB3-FC09-435F-B76B-F4F446485F4D}" name="Combination WITHOUT repetitions" dataDxfId="108">
+    <tableColumn id="7" xr3:uid="{7B984BB3-FC09-435F-B76B-F4F446485F4D}" name="Combination WITHOUT repetitions" dataDxfId="95">
       <calculatedColumnFormula array="1">SUMPRODUCT(--(MMULT(--ISNUMBER(SEARCH(L3, 'Data extraction form'!$A$2:'Data extraction form'!$L$9999)), TRANSPOSE(COLUMN('Data extraction form'!$A$2:'Data extraction form'!$L$9999)^0)) &gt; 0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{558327CE-1521-45FF-B631-AED0611EC4AB}" name="Font" dataDxfId="107"/>
+    <tableColumn id="8" xr3:uid="{558327CE-1521-45FF-B631-AED0611EC4AB}" name="Font" dataDxfId="94"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{D1B62158-DCAE-4784-8869-6CC3BE97BA6B}" name="Tabla43132" displayName="Tabla43132" ref="B2:D5" totalsRowShown="0" headerRowDxfId="106" dataDxfId="104" headerRowBorderDxfId="105" tableBorderDxfId="103" totalsRowBorderDxfId="102">
-  <autoFilter ref="B2:D5" xr:uid="{A1B60E13-099B-4C54-B9B9-4D3AF8C9D58C}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B028F4B4-D1F5-49C4-9F5C-B547A5FA43F8}" name="Tabla431323" displayName="Tabla431323" ref="B29:D32" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46" headerRowBorderDxfId="44" tableBorderDxfId="45" totalsRowBorderDxfId="43">
+  <autoFilter ref="B29:D32" xr:uid="{B028F4B4-D1F5-49C4-9F5C-B547A5FA43F8}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B30:D32">
     <sortCondition ref="B22:B25"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1521AE05-902A-4FC2-8F07-70E634C8D951}" name="Year" dataDxfId="101"/>
-    <tableColumn id="2" xr3:uid="{998D7C42-917A-4EA5-A5EF-E51853CE1E53}" name="Number documents" dataDxfId="1">
-      <calculatedColumnFormula>COUNTIF('Data extraction form'!$D$2:$D$9999,B3)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{D176C958-F7C8-4B29-BAA9-D6763F4CBD97}" name="Year" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{1FF87671-4127-4333-83A0-2FE0AC6B15DF}" name="Number documents" dataDxfId="41">
+      <calculatedColumnFormula>COUNTIF('Data extraction form'!$D$2:$D$9999,B30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{BB99C339-ACBA-4327-BC73-EA6E42835DE9}" name="Percentage (%)" dataDxfId="100">
-      <calculatedColumnFormula>(C3/SUM(Tabla43132[Number documents]))*100</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{C1A99BD8-6C81-44AB-A3E4-B6FE9C59963B}" name="Percentage (%)" dataDxfId="40">
+      <calculatedColumnFormula>(C30/SUM(Tabla431323[Number documents]))*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -17083,44 +16743,28 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{49CCB64A-C400-4638-B1C5-0477C74B94FD}" name="Table50107" displayName="Table50107" ref="B2:I10" totalsRowShown="0" headerRowDxfId="99" dataDxfId="97" headerRowBorderDxfId="98" tableBorderDxfId="96" totalsRowBorderDxfId="95">
-  <autoFilter ref="B2:I10" xr:uid="{C4AD96BC-962C-4AE3-9CA6-4634B6D902DD}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{002A8E0D-24A5-42D3-AB86-8E3D4CE4F20D}" name="Terms" dataDxfId="94"/>
-    <tableColumn id="2" xr3:uid="{A67E0972-5AE0-414E-A933-D40E7E15D035}" name="Title" dataDxfId="93">
-      <calculatedColumnFormula array="1">SUMPRODUCT(--ISNUMBER(SEARCH(B3, 'Data extraction form'!$A$2:$A$9999)))</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF2505F3-AAEA-4ECE-AC35-02C6D384F6BF}" name="Tabla431322" displayName="Tabla431322" ref="B2:D7" totalsRowShown="0" headerRowDxfId="93" dataDxfId="91" headerRowBorderDxfId="92" tableBorderDxfId="90" totalsRowBorderDxfId="89">
+  <autoFilter ref="B2:D7" xr:uid="{A1B60E13-099B-4C54-B9B9-4D3AF8C9D58C}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{13E7FB44-4868-4F34-B502-F2F24F0CF674}" name="Year" dataDxfId="88"/>
+    <tableColumn id="2" xr3:uid="{03E85AE7-70F9-4930-810C-1151BAA07037}" name="Number documents" dataDxfId="87">
+      <calculatedColumnFormula>COUNTIF('Data extraction form'!$G$2:$G$9999,"*" &amp; B3 &amp; "*")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{CE6B9161-50B7-4AFD-B521-756FE9AC3017}" name="Abstract" dataDxfId="92">
-      <calculatedColumnFormula array="1">SUMPRODUCT(--ISNUMBER(SEARCH(B3, 'Data extraction form'!$F$2:$F$9999)))</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{BD40B1CB-A12A-4130-86F9-9A6D40A62C7C}" name="Percentage (%)" dataDxfId="86">
+      <calculatedColumnFormula>(C3/SUM(Tabla431322[Number documents]))*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{EA10F4A5-5B4C-4C1A-8272-6E6D836CBAD0}" name="Author Keywords" dataDxfId="91">
-      <calculatedColumnFormula array="1">SUMPRODUCT(--ISNUMBER(SEARCH(B3, 'Data extraction form'!$B$2:$B$9999)))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{CE9FB951-4E43-49F5-8122-F49525F5C790}" name="Index Keywords" dataDxfId="90">
-      <calculatedColumnFormula array="1">SUMPRODUCT(--ISNUMBER(SEARCH(B3, 'Data extraction form'!$C$2:$C$9999)))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{FA919DA8-A206-42A8-9B90-9F46B6730A6D}" name="Combination WITH repetitions" dataDxfId="89">
-      <calculatedColumnFormula array="1">SUMPRODUCT(--ISNUMBER(SEARCH(B3, 'Data extraction form'!$A$2:'Data extraction form'!$L$9999)))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{76D5C615-3B75-4EBD-9646-7677211A25E0}" name="Combination WITHOUT repetitions" dataDxfId="88">
-      <calculatedColumnFormula array="1">SUMPRODUCT(--(MMULT(--ISNUMBER(SEARCH(B3, 'Data extraction form'!$A$2:'Data extraction form'!$L$9999)), TRANSPOSE(COLUMN('Data extraction form'!$A$2:'Data extraction form'!$L$9999)^0)) &gt; 0))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{21647030-7481-4826-BEEC-5A4D2CE1B2EF}" name="Font" dataDxfId="87"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF2505F3-AAEA-4ECE-AC35-02C6D384F6BF}" name="Tabla431322" displayName="Tabla431322" ref="B2:D7" totalsRowShown="0" headerRowDxfId="86" dataDxfId="84" headerRowBorderDxfId="85" tableBorderDxfId="83" totalsRowBorderDxfId="82">
-  <autoFilter ref="B2:D7" xr:uid="{A1B60E13-099B-4C54-B9B9-4D3AF8C9D58C}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{13E7FB44-4868-4F34-B502-F2F24F0CF674}" name="Year" dataDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{03E85AE7-70F9-4930-810C-1151BAA07037}" name="Number documents" dataDxfId="0">
-      <calculatedColumnFormula>COUNTIF('Data extraction form'!$G$2:$G$9999,"*" &amp; B3 &amp; "*")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{BD40B1CB-A12A-4130-86F9-9A6D40A62C7C}" name="Percentage (%)" dataDxfId="80">
-      <calculatedColumnFormula>(C3/SUM(Tabla431322[Number documents]))*100</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{58E5E6D1-3210-4397-B588-2A7651204554}" name="Table115" displayName="Table115" ref="B32:C37" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="37" tableBorderDxfId="38" totalsRowBorderDxfId="36">
+  <autoFilter ref="B32:C37" xr:uid="{58E5E6D1-3210-4397-B588-2A7651204554}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{CC98FEB1-696B-42B5-8584-7E8240126414}" name="SDLC Phase" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{8966C70C-FF21-427A-8269-E9DA75EF7DCC}" name="Applications" dataDxfId="34">
+      <calculatedColumnFormula array="1">_xlfn.TEXTJOIN(",", TRUE, _xlfn.UNIQUE(_xlfn._xlws.FILTER('Data extraction form'!$H$2:$H$9999, 'Data extraction form'!$G$2:$G$9999=B33, "No hay datos")))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -17420,28 +17064,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="40" t="s">
         <v>252</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -31224,1237 +30868,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C5126C-67CA-4F42-953A-42695A6CCF00}">
-  <dimension ref="B2:D53"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA16" sqref="AA16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="146.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="C3" s="21" t="str" cm="1">
-        <f t="array" ref="C3">_xlfn.TEXTJOIN(",", TRUE, _xlfn.UNIQUE(_xlfn._xlws.FILTER('Data extraction form'!$H$2:$H$9999, 'Data extraction form'!$G$2:$G$9999=B3, "No hay datos")))</f>
-        <v>Requirements Modelling,User Story Generation/Enhancement</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="C4" s="21" t="str" cm="1">
-        <f t="array" ref="C4">_xlfn.TEXTJOIN(",", TRUE, _xlfn.UNIQUE(_xlfn._xlws.FILTER('Data extraction form'!$H$2:$H$9999, 'Data extraction form'!$G$2:$G$9999=B4, "No hay datos")))</f>
-        <v>Design Modelling,UI/UX Design</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
-        <v>2092</v>
-      </c>
-      <c r="C5" s="21" t="str" cm="1">
-        <f t="array" ref="C5">_xlfn.TEXTJOIN(",", TRUE, _xlfn.UNIQUE(_xlfn._xlws.FILTER('Data extraction form'!$H$2:$H$9999, 'Data extraction form'!$G$2:$G$9999=B5, "No hay datos")))</f>
-        <v>Code Generation,Code Refactoring/Improvement,Code Documentation/Comprehension,Code Completion/Suggestion,Version Control and Integration</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
-        <v>2093</v>
-      </c>
-      <c r="C6" s="21" t="str" cm="1">
-        <f t="array" ref="C6">_xlfn.TEXTJOIN(",", TRUE, _xlfn.UNIQUE(_xlfn._xlws.FILTER('Data extraction form'!$H$2:$H$9999, 'Data extraction form'!$G$2:$G$9999=B6, "No hay datos")))</f>
-        <v>No hay datos</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="C7" s="13" t="str" cm="1">
-        <f t="array" ref="C7">_xlfn.TEXTJOIN(",", TRUE, _xlfn.UNIQUE(_xlfn._xlws.FILTER('Data extraction form'!$H$2:$H$9999, 'Data extraction form'!$G$2:$G$9999=B7, "No hay datos")))</f>
-        <v>System Tracking,Incident Management</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="62" t="s">
-        <v>268</v>
-      </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="C11" s="16" cm="1">
-        <f t="array" ref="C11">COUNTA(_xlfn._xlws.FILTER(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ","), _xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ",")=B11))</f>
-        <v>1</v>
-      </c>
-      <c r="D11" s="37">
-        <f>(C11/SUM(Table13[Number documents]))*100</f>
-        <v>33.333333333333329</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="C12" s="16" cm="1">
-        <f t="array" ref="C12">COUNTA(_xlfn._xlws.FILTER(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ","), _xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ",")=B12))</f>
-        <v>2</v>
-      </c>
-      <c r="D12" s="37">
-        <f>(C12/SUM(Table13[Number documents]))*100</f>
-        <v>66.666666666666657</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="62" t="s">
-        <v>285</v>
-      </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="C16" s="16" cm="1">
-        <f t="array" ref="C16">COUNTA(_xlfn._xlws.FILTER(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ","), _xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ",")=B16))</f>
-        <v>2</v>
-      </c>
-      <c r="D16" s="37">
-        <f>(C16/SUM(Table1318[Number documents]))*100</f>
-        <v>66.666666666666657</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="C17" s="16" cm="1">
-        <f t="array" ref="C17">COUNTA(_xlfn._xlws.FILTER(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ","), _xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ",")=B17))</f>
-        <v>1</v>
-      </c>
-      <c r="D17" s="37">
-        <f>(C17/SUM(Table1318[Number documents]))*100</f>
-        <v>33.333333333333329</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="62" t="s">
-        <v>2092</v>
-      </c>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="C21" s="16" cm="1">
-        <f t="array" ref="C21">COUNTA(_xlfn._xlws.FILTER(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ","), _xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ",")=B21))</f>
-        <v>15</v>
-      </c>
-      <c r="D21" s="37">
-        <f>(C21/SUM(Table131819[Number documents]))*100</f>
-        <v>27.777777777777779</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="C22" s="16" cm="1">
-        <f t="array" ref="C22">COUNTA(_xlfn._xlws.FILTER(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ","), _xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ",")=B22))</f>
-        <v>6</v>
-      </c>
-      <c r="D22" s="37">
-        <f>(C22/SUM(Table131819[Number documents]))*100</f>
-        <v>11.111111111111111</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="C23" s="16" cm="1">
-        <f t="array" ref="C23">COUNTA(_xlfn._xlws.FILTER(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ","), _xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ",")=B23))</f>
-        <v>10</v>
-      </c>
-      <c r="D23" s="37">
-        <f>(C23/SUM(Table131819[Number documents]))*100</f>
-        <v>18.518518518518519</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="C24" s="16" cm="1">
-        <f t="array" ref="C24">COUNTA(_xlfn._xlws.FILTER(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ","), _xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ",")=B24))</f>
-        <v>9</v>
-      </c>
-      <c r="D24" s="37">
-        <f>(C24/SUM(Table131819[Number documents]))*100</f>
-        <v>16.666666666666664</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="15" t="s">
-        <v>443</v>
-      </c>
-      <c r="C25" s="16" cm="1">
-        <f t="array" ref="C25">COUNTA(_xlfn._xlws.FILTER(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ","), _xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ",")=B25))</f>
-        <v>12</v>
-      </c>
-      <c r="D25" s="37">
-        <f>(C25/SUM(Table131819[Number documents]))*100</f>
-        <v>22.222222222222221</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="C26" s="16" cm="1">
-        <f t="array" ref="C26">COUNTA(_xlfn._xlws.FILTER(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ","), _xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ",")=B26))</f>
-        <v>2</v>
-      </c>
-      <c r="D26" s="37">
-        <f>(C26/SUM(Table131819[Number documents]))*100</f>
-        <v>3.7037037037037033</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="62" t="s">
-        <v>2108</v>
-      </c>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="C30" s="16" cm="1">
-        <f t="array" ref="C30">COUNTA(_xlfn._xlws.FILTER(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ","), _xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ",")=B30))</f>
-        <v>17</v>
-      </c>
-      <c r="D30" s="38">
-        <f>(C30/SUM(Table131819[Number documents]))*100</f>
-        <v>31.481481481481481</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="C31" s="18" cm="1">
-        <f t="array" ref="C31">COUNTA(_xlfn._xlws.FILTER(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ","), _xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ",")=B31))</f>
-        <v>10</v>
-      </c>
-      <c r="D31" s="39">
-        <f>(C31/SUM(Table131819[Number documents]))*100</f>
-        <v>18.518518518518519</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="62" t="s">
-        <v>264</v>
-      </c>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="17" t="s">
-        <v>428</v>
-      </c>
-      <c r="C35" s="16" cm="1">
-        <f t="array" ref="C35">COUNTA(_xlfn._xlws.FILTER(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ","), _xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ",")=B35))</f>
-        <v>1</v>
-      </c>
-      <c r="D35" s="38">
-        <f>(C35/SUM(Table131819[Number documents]))*100</f>
-        <v>1.8518518518518516</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="C36" s="18" cm="1">
-        <f t="array" ref="C36">COUNTA(_xlfn._xlws.FILTER(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ","), _xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ",")=B36))</f>
-        <v>2</v>
-      </c>
-      <c r="D36" s="39">
-        <f>(C36/SUM(Table131819[Number documents]))*100</f>
-        <v>3.7037037037037033</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="24" t="s">
-        <v>259</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>2094</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="57" t="s">
-        <v>2166</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>2171</v>
-      </c>
-      <c r="D40" s="26">
-        <f>C35</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="58"/>
-      <c r="C41" s="25" t="s">
-        <v>2172</v>
-      </c>
-      <c r="D41" s="26">
-        <f>C36</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="59" t="s">
-        <v>2167</v>
-      </c>
-      <c r="C42" s="27" t="s">
-        <v>2173</v>
-      </c>
-      <c r="D42" s="28">
-        <f>C30</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="60"/>
-      <c r="C43" s="27" t="s">
-        <v>2174</v>
-      </c>
-      <c r="D43" s="28">
-        <f>C31</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="57" t="s">
-        <v>2168</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>2175</v>
-      </c>
-      <c r="D44" s="26">
-        <f>C26</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="61"/>
-      <c r="C45" s="29" t="s">
-        <v>2176</v>
-      </c>
-      <c r="D45" s="26">
-        <f>C25</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="61"/>
-      <c r="C46" s="25" t="s">
-        <v>2177</v>
-      </c>
-      <c r="D46" s="26">
-        <f>C24</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="61"/>
-      <c r="C47" s="25" t="s">
-        <v>2178</v>
-      </c>
-      <c r="D47" s="26">
-        <f>C23</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="61"/>
-      <c r="C48" s="25" t="s">
-        <v>2179</v>
-      </c>
-      <c r="D48" s="26">
-        <f>C22</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="58"/>
-      <c r="C49" s="25" t="s">
-        <v>2180</v>
-      </c>
-      <c r="D49" s="26">
-        <f>C21</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="59" t="s">
-        <v>2170</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>2181</v>
-      </c>
-      <c r="D50" s="28">
-        <f>C17</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="60"/>
-      <c r="C51" s="27" t="s">
-        <v>2184</v>
-      </c>
-      <c r="D51" s="28">
-        <f>C16</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="57" t="s">
-        <v>2169</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>2182</v>
-      </c>
-      <c r="D52" s="26">
-        <f>C12</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="58"/>
-      <c r="C53" s="25" t="s">
-        <v>2183</v>
-      </c>
-      <c r="D53" s="26">
-        <f>C11</f>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="B50:B51"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="6">
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
-    <tablePart r:id="rId5"/>
-    <tablePart r:id="rId6"/>
-    <tablePart r:id="rId7"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0CFA70B-FF16-42E5-9C8A-AD6DFE143965}">
-  <dimension ref="B2:C67"/>
-  <sheetViews>
-    <sheetView topLeftCell="B3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
-    <col min="3" max="3" width="100.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="255" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="str">
-        <f>_xlfn.TEXTJOIN(",", TRUE, _xlfn.UNIQUE(_xlfn.TEXTSPLIT(LOWER(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$K$2:$K$9999)), ","), TRUE))</f>
-        <v>not mentioned,gpt-3.5,sbert,chatgpt,falcon-40b,gpt-2,llama-7b,llama-13b,albert,bert,codebert,deberta,distilbert,roberta,tinypixel/llama-2-7b-bf16-sharded,faster rcnn inception resnet v2,codegpt,cat-lm,copilot,codeparrot-small,codeparrot,gpt-neo-125m,gpt-neo-13b,gpt-j,codegen-2b,codegen-6b,codefuse-13b,gpt-3.5-turbo,code-davinci-002,llama-2-chat,graphcodebert,codet5,coderanker,f-codellm,gpt4,starcoder,unixcoder,t5,txt2model,codex,gpt-4,gpt-3,gpt-3.5-turbo16k,gpt-4-1106-preview,flan-t5-small,flan-t5-base,chatglm-6b,gpt 3.5,gpt,chatgpt 3.5,codet5+,curie</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
-        <v>465</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="34" t="s">
-        <v>460</v>
-      </c>
-      <c r="C6" s="31" t="str" cm="1">
-        <f t="array" ref="C6">_xlfn.TEXTJOIN(",", TRUE, _xlfn._xlws.FILTER(_xlfn.TEXTSPLIT($B$3, ","), ISNUMBER(SEARCH(B6, _xlfn.TEXTSPLIT($B$3, ",")))))</f>
-        <v>gpt-3.5,chatgpt,gpt-2,codegpt,gpt-neo-125m,gpt-neo-13b,gpt-j,gpt-3.5-turbo,gpt4,gpt-4,gpt-3,gpt-3.5-turbo16k,gpt-4-1106-preview,gpt 3.5,gpt,chatgpt 3.5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="34" t="s">
-        <v>462</v>
-      </c>
-      <c r="C7" s="31" t="str" cm="1">
-        <f t="array" ref="C7">_xlfn.TEXTJOIN(",", TRUE, _xlfn._xlws.FILTER(_xlfn.TEXTSPLIT($B$3, ","), ISNUMBER(SEARCH(B7, _xlfn.TEXTSPLIT($B$3, ",")))))</f>
-        <v>sbert,albert,bert,codebert,deberta,distilbert,roberta,graphcodebert</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="34" t="s">
-        <v>464</v>
-      </c>
-      <c r="C8" s="31" t="str" cm="1">
-        <f t="array" ref="C8">_xlfn.TEXTJOIN(",", TRUE, _xlfn._xlws.FILTER(_xlfn.TEXTSPLIT($B$3, ","), ISNUMBER(SEARCH(B8, _xlfn.TEXTSPLIT($B$3, ",")))))</f>
-        <v>codet5,t5,flan-t5-small,flan-t5-base,codet5+</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="34" t="s">
-        <v>461</v>
-      </c>
-      <c r="C9" s="31" t="str" cm="1">
-        <f t="array" ref="C9">_xlfn.TEXTJOIN(",", TRUE, _xlfn._xlws.FILTER(_xlfn.TEXTSPLIT($B$3, ","), ISNUMBER(SEARCH(B9, _xlfn.TEXTSPLIT($B$3, ",")))))</f>
-        <v>llama-7b,llama-13b,tinypixel/llama-2-7b-bf16-sharded,llama-2-chat</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="C10" s="31" t="str" cm="1">
-        <f t="array" ref="C10">_xlfn.TEXTJOIN(",", TRUE, _xlfn._xlws.FILTER(_xlfn.TEXTSPLIT($B$3, ","), ISNUMBER(SEARCH(B10, _xlfn.TEXTSPLIT($B$3, ",")))))</f>
-        <v>codex</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="34" t="s">
-        <v>427</v>
-      </c>
-      <c r="C11" s="31" t="str" cm="1">
-        <f t="array" ref="C11">_xlfn.TEXTJOIN(",", TRUE, _xlfn._xlws.FILTER(_xlfn.TEXTSPLIT($B$3, ","), ISNUMBER(SEARCH(B11, _xlfn.TEXTSPLIT($B$3, ",")))))</f>
-        <v>not mentioned</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="34" t="s">
-        <v>466</v>
-      </c>
-      <c r="C12" s="31" t="str" cm="1">
-        <f t="array" ref="C12">_xlfn.TEXTJOIN(",", TRUE, IF(ISERROR(MATCH(_xlfn.TEXTSPLIT(B3, ","), _xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, C6:C11), ","), 0)), _xlfn.TEXTSPLIT(B3, ","), ""))</f>
-        <v>falcon-40b,faster rcnn inception resnet v2,cat-lm,copilot,codeparrot-small,codeparrot,codegen-2b,codegen-6b,codefuse-13b,code-davinci-002,coderanker,f-codellm,starcoder,unixcoder,txt2model,chatglm-6b,curie</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B14" s="63" t="s">
-        <v>470</v>
-      </c>
-      <c r="C14" s="63"/>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="C16" s="3" cm="1">
-        <f t="array" ref="C16">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT(C12, ","), 'Data extraction form'!$K$2:$K$9999)), ROW('Data extraction form'!$K$2:$K$9999)), ROW('Data extraction form'!$K$2:$K$9999)) &gt; 0, 1))</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>2160</v>
-      </c>
-      <c r="C17" s="3" cm="1">
-        <f t="array" ref="C17">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT(C7, ","), 'Data extraction form'!$K$2:$K$9999)), ROW('Data extraction form'!$K$2:$K$9999)), ROW('Data extraction form'!$K$2:$K$9999)) &gt; 0, 1))</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>2161</v>
-      </c>
-      <c r="C18" s="3" cm="1">
-        <f t="array" ref="C18">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT(C10, ","), 'Data extraction form'!$K$2:$K$9999)), ROW('Data extraction form'!$K$2:$K$9999)), ROW('Data extraction form'!$K$2:$K$9999)) &gt; 0, 1))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
-        <v>2162</v>
-      </c>
-      <c r="C19" s="3" cm="1">
-        <f t="array" ref="C19">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT(C6, ","), 'Data extraction form'!$K$2:$K$9999)), ROW('Data extraction form'!$K$2:$K$9999)), ROW('Data extraction form'!$K$2:$K$9999)) &gt; 0, 1))</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>2163</v>
-      </c>
-      <c r="C20" s="3" cm="1">
-        <f t="array" ref="C20">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT(C9, ","), 'Data extraction form'!$K$2:$K$9999)), ROW('Data extraction form'!$K$2:$K$9999)), ROW('Data extraction form'!$K$2:$K$9999)) &gt; 0, 1))</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
-        <v>2164</v>
-      </c>
-      <c r="C21" s="3" cm="1">
-        <f t="array" ref="C21">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT(C8, ","), 'Data extraction form'!$K$2:$K$9999)), ROW('Data extraction form'!$K$2:$K$9999)), ROW('Data extraction form'!$K$2:$K$9999)) &gt; 0, 1))</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B24" s="63" t="s">
-        <v>268</v>
-      </c>
-      <c r="C24" s="63"/>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="C26" s="3" cm="1">
-        <f t="array" ref="C26">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$12, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B24,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B24,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B24,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>2160</v>
-      </c>
-      <c r="C27" s="3" cm="1">
-        <f t="array" ref="C27">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$7, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B24,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B24,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B24,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
-        <v>2161</v>
-      </c>
-      <c r="C28" s="3" cm="1">
-        <f t="array" ref="C28">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$10, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B24,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B24,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B24,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
-        <v>2162</v>
-      </c>
-      <c r="C29" s="3" cm="1">
-        <f t="array" ref="C29">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$6, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B24,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B24,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B24,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
-        <v>2163</v>
-      </c>
-      <c r="C30" s="3" cm="1">
-        <f t="array" ref="C30">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$9, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B24,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B24,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B24,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
-        <v>2164</v>
-      </c>
-      <c r="C31" s="3" cm="1">
-        <f t="array" ref="C31">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$8, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B24,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B24,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B24,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B33" s="63" t="s">
-        <v>285</v>
-      </c>
-      <c r="C33" s="63"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="C35" s="3" cm="1">
-        <f t="array" ref="C35">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$12, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B33,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B33,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B33,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="3" t="s">
-        <v>2160</v>
-      </c>
-      <c r="C36" s="3" cm="1">
-        <f t="array" ref="C36">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$7, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B33,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B33,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B33,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="3" t="s">
-        <v>2161</v>
-      </c>
-      <c r="C37" s="3" cm="1">
-        <f t="array" ref="C37">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$10, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B33,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B33,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B33,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="3" t="s">
-        <v>2162</v>
-      </c>
-      <c r="C38" s="3" cm="1">
-        <f t="array" ref="C38">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$6, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B33,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B33,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B33,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="3" t="s">
-        <v>2163</v>
-      </c>
-      <c r="C39" s="3" cm="1">
-        <f t="array" ref="C39">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$9, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B33,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B33,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B33,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="3" t="s">
-        <v>2164</v>
-      </c>
-      <c r="C40" s="3" cm="1">
-        <f t="array" ref="C40">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$8, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B33,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B33,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B33,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B42" s="63" t="s">
-        <v>2092</v>
-      </c>
-      <c r="C42" s="63"/>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="C44" s="3" cm="1">
-        <f t="array" ref="C44">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$12, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B42,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B42,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B42,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="3" t="s">
-        <v>2160</v>
-      </c>
-      <c r="C45" s="3" cm="1">
-        <f t="array" ref="C45">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$7, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B42,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B42,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B42,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="3" t="s">
-        <v>2161</v>
-      </c>
-      <c r="C46" s="3" cm="1">
-        <f t="array" ref="C46">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$10, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B42,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B42,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B42,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="3" t="s">
-        <v>2162</v>
-      </c>
-      <c r="C47" s="3" cm="1">
-        <f t="array" ref="C47">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$6, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B42,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B42,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B42,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="3" t="s">
-        <v>2163</v>
-      </c>
-      <c r="C48" s="3" cm="1">
-        <f t="array" ref="C48">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$9, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B42,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B42,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B42,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="3" t="s">
-        <v>2164</v>
-      </c>
-      <c r="C49" s="3" cm="1">
-        <f t="array" ref="C49">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$8, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B42,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B42,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B42,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B51" s="63" t="s">
-        <v>2108</v>
-      </c>
-      <c r="C51" s="63"/>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="C53" s="3" cm="1">
-        <f t="array" ref="C53">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$12, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B51,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B51,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B51,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="3" t="s">
-        <v>2160</v>
-      </c>
-      <c r="C54" s="3" cm="1">
-        <f t="array" ref="C54">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$7, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B51,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B51,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B51,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="3" t="s">
-        <v>2161</v>
-      </c>
-      <c r="C55" s="3" cm="1">
-        <f t="array" ref="C55">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$10, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B51,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B51,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B51,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="3" t="s">
-        <v>2162</v>
-      </c>
-      <c r="C56" s="3" cm="1">
-        <f t="array" ref="C56">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$6, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B51,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B51,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B51,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="3" t="s">
-        <v>2163</v>
-      </c>
-      <c r="C57" s="3" cm="1">
-        <f t="array" ref="C57">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$9, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B51,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B51,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B51,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="3" t="s">
-        <v>2164</v>
-      </c>
-      <c r="C58" s="3" cm="1">
-        <f t="array" ref="C58">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$8, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B51,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B51,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B51,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B60" s="63" t="s">
-        <v>264</v>
-      </c>
-      <c r="C60" s="63"/>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="C62" s="3" cm="1">
-        <f t="array" ref="C62">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$12, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B60,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B60,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B60,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="3" t="s">
-        <v>2160</v>
-      </c>
-      <c r="C63" s="3" cm="1">
-        <f t="array" ref="C63">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$7, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B60,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B60,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B60,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="3" t="s">
-        <v>2161</v>
-      </c>
-      <c r="C64" s="3" cm="1">
-        <f t="array" ref="C64">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$10, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B60,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B60,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B60,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="3" t="s">
-        <v>2162</v>
-      </c>
-      <c r="C65" s="3" cm="1">
-        <f t="array" ref="C65">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$6, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B60,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B60,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B60,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="3" t="s">
-        <v>2163</v>
-      </c>
-      <c r="C66" s="3" cm="1">
-        <f t="array" ref="C66">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$9, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B60,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B60,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B60,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="3" t="s">
-        <v>2164</v>
-      </c>
-      <c r="C67" s="3" cm="1">
-        <f t="array" ref="C67">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$8, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B60,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B60,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B60,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B17:B21">
-    <sortCondition ref="B17:B21"/>
-  </sortState>
-  <mergeCells count="6">
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B51:C51"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="6">
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
-    <tablePart r:id="rId5"/>
-    <tablePart r:id="rId6"/>
-    <tablePart r:id="rId7"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87510E2C-ACA9-4D86-8C85-60304F11CA8E}">
-  <dimension ref="B2:D5"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="C3" s="3">
-        <f>COUNTIF('Data extraction form'!$I$2:$I$9999,B3)</f>
-        <v>20</v>
-      </c>
-      <c r="D3" s="22">
-        <f>(C3/SUM(Tabla4313249[Number documents]))*100</f>
-        <v>41.666666666666671</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C4" s="3">
-        <f>COUNTIF('Data extraction form'!$I$2:$I$9999,B4)</f>
-        <v>15</v>
-      </c>
-      <c r="D4" s="22">
-        <f>(C4/SUM(Tabla4313249[Number documents]))*100</f>
-        <v>31.25</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="C5" s="3">
-        <f>COUNTIF('Data extraction form'!$I$2:$I$9999,B5)</f>
-        <v>13</v>
-      </c>
-      <c r="D5" s="23">
-        <f>(C5/SUM(Tabla4313249[Number documents]))*100</f>
-        <v>27.083333333333332</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6FA050-DA4B-4D64-9046-89521881282D}">
-  <dimension ref="B2:D7"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
-        <v>2095</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="C3" s="3">
-        <f>COUNTIF('Data extraction form'!$L$2:$L$9999,B3)</f>
-        <v>5</v>
-      </c>
-      <c r="D3" s="22">
-        <f>(C3/SUM(Tabla431324950[Number documents]))*100</f>
-        <v>10.416666666666668</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
-        <v>2185</v>
-      </c>
-      <c r="C4" s="3">
-        <f>COUNTIF('Data extraction form'!$L$2:$L$9999,B4)</f>
-        <v>4</v>
-      </c>
-      <c r="D4" s="22">
-        <f>(C4/SUM(Tabla431324950[Number documents]))*100</f>
-        <v>8.3333333333333321</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
-        <v>2186</v>
-      </c>
-      <c r="C5" s="3">
-        <f>COUNTIF('Data extraction form'!$L$2:$L$9999,B5)</f>
-        <v>7</v>
-      </c>
-      <c r="D5" s="23">
-        <f>(C5/SUM(Tabla431324950[Number documents]))*100</f>
-        <v>14.583333333333334</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>2188</v>
-      </c>
-      <c r="C6" s="3">
-        <f>COUNTIF('Data extraction form'!$L$2:$L$9999,B6)</f>
-        <v>2</v>
-      </c>
-      <c r="D6" s="22">
-        <f>(C6/SUM(Tabla431324950[Number documents]))*100</f>
-        <v>4.1666666666666661</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
-        <v>2187</v>
-      </c>
-      <c r="C7" s="3">
-        <f>COUNTIF('Data extraction form'!$L$2:$L$9999,B7)</f>
-        <v>30</v>
-      </c>
-      <c r="D7" s="22">
-        <f>(C7/SUM(Tabla431324950[Number documents]))*100</f>
-        <v>62.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -39121,18 +37534,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="41" t="s">
         <v>2190</v>
       </c>
-      <c r="C2" s="47"/>
+      <c r="C2" s="42"/>
     </row>
     <row r="3" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
     </row>
     <row r="4" spans="2:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
     </row>
     <row r="5" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="30" t="s">
@@ -39143,7 +37556,7 @@
       </c>
     </row>
     <row r="6" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="47" t="s">
         <v>268</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -39151,13 +37564,13 @@
       </c>
     </row>
     <row r="7" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="53"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="6" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="47" t="s">
         <v>285</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -39165,13 +37578,13 @@
       </c>
     </row>
     <row r="9" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="53"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="6" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="49" t="s">
         <v>2092</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -39179,37 +37592,37 @@
       </c>
     </row>
     <row r="11" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="56"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="6" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="56"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="6" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="56"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="6" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="56"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="6" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="55"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="6" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="49" t="s">
         <v>2108</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -39218,14 +37631,14 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="55"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="6" t="s">
         <v>258</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="47" t="s">
         <v>264</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -39233,7 +37646,7 @@
       </c>
     </row>
     <row r="19" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="53"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="6" t="s">
         <v>428</v>
       </c>
@@ -39256,7 +37669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2230CD5-BC06-4076-B0F8-FE88473BE062}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -41123,15 +39536,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426AC90C-953C-4C7C-899B-A11BBBF8994E}">
-  <dimension ref="B2:S10"/>
+  <dimension ref="B2:S32"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.5703125" bestFit="1" customWidth="1"/>
@@ -41470,6 +39883,1337 @@
         <v>12</v>
       </c>
     </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="3">
+        <f>COUNTIF('Data extraction form'!$D$2:$D$9999,B30)</f>
+        <v>39</v>
+      </c>
+      <c r="D30" s="22">
+        <f>(C30/SUM(Tabla431323[Number documents]))*100</f>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="7" t="s">
+        <v>2165</v>
+      </c>
+      <c r="C31" s="3">
+        <f>COUNTIF('Data extraction form'!$D$2:$D$9999,"Article")</f>
+        <v>8</v>
+      </c>
+      <c r="D31" s="22">
+        <f>(C31/SUM(Tabla431323[Number documents]))*100</f>
+        <v>16.666666666666664</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="3">
+        <f>COUNTIF('Data extraction form'!$D$2:$D$9999,B32)</f>
+        <v>1</v>
+      </c>
+      <c r="D32" s="23">
+        <f>(C32/SUM(Tabla431323[Number documents]))*100</f>
+        <v>2.083333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{394E5EB0-34D2-4B67-93E0-32FD49D3F151}">
+  <dimension ref="B2:D83"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AI66" sqref="AI66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="137.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>2166</v>
+      </c>
+      <c r="C3" s="3">
+        <f>COUNTIF('Data extraction form'!$G$2:$G$9999,"*" &amp; B3 &amp; "*")</f>
+        <v>3</v>
+      </c>
+      <c r="D3" s="22">
+        <f>(C3/SUM(Tabla431322[Number documents]))*100</f>
+        <v>5.3571428571428568</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>2167</v>
+      </c>
+      <c r="C4" s="3">
+        <f>COUNTIF('Data extraction form'!$G$2:$G$9999,"*" &amp; B4 &amp; "*")</f>
+        <v>20</v>
+      </c>
+      <c r="D4" s="22">
+        <f>(C4/SUM(Tabla431322[Number documents]))*100</f>
+        <v>35.714285714285715</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C5" s="3">
+        <f>COUNTIF('Data extraction form'!$G$2:$G$9999,"*" &amp; B5 &amp; "*")</f>
+        <v>27</v>
+      </c>
+      <c r="D5" s="23">
+        <f>(C5/SUM(Tabla431322[Number documents]))*100</f>
+        <v>48.214285714285715</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>2170</v>
+      </c>
+      <c r="C6" s="3">
+        <f>COUNTIF('Data extraction form'!$G$2:$G$9999,"*" &amp; B6 &amp; "*")</f>
+        <v>3</v>
+      </c>
+      <c r="D6" s="22">
+        <f>(C6/SUM(Tabla431322[Number documents]))*100</f>
+        <v>5.3571428571428568</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>2169</v>
+      </c>
+      <c r="C7" s="3">
+        <f>COUNTIF('Data extraction form'!$G$2:$G$9999,"*" &amp; B7 &amp; "*")</f>
+        <v>3</v>
+      </c>
+      <c r="D7" s="22">
+        <f>(C7/SUM(Tabla431322[Number documents]))*100</f>
+        <v>5.3571428571428568</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="C33" s="21" t="str" cm="1">
+        <f t="array" ref="C33">_xlfn.TEXTJOIN(",", TRUE, _xlfn.UNIQUE(_xlfn._xlws.FILTER('Data extraction form'!$H$2:$H$9999, 'Data extraction form'!$G$2:$G$9999=B33, "No hay datos")))</f>
+        <v>Requirements Modelling,User Story Generation/Enhancement</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="C34" s="21" t="str" cm="1">
+        <f t="array" ref="C34">_xlfn.TEXTJOIN(",", TRUE, _xlfn.UNIQUE(_xlfn._xlws.FILTER('Data extraction form'!$H$2:$H$9999, 'Data extraction form'!$G$2:$G$9999=B34, "No hay datos")))</f>
+        <v>Design Modelling,UI/UX Design</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="17" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C35" s="21" t="str" cm="1">
+        <f t="array" ref="C35">_xlfn.TEXTJOIN(",", TRUE, _xlfn.UNIQUE(_xlfn._xlws.FILTER('Data extraction form'!$H$2:$H$9999, 'Data extraction form'!$G$2:$G$9999=B35, "No hay datos")))</f>
+        <v>Code Generation,Code Refactoring/Improvement,Code Documentation/Comprehension,Code Completion/Suggestion,Version Control and Integration</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="17" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C36" s="21" t="str" cm="1">
+        <f t="array" ref="C36">_xlfn.TEXTJOIN(",", TRUE, _xlfn.UNIQUE(_xlfn._xlws.FILTER('Data extraction form'!$H$2:$H$9999, 'Data extraction form'!$G$2:$G$9999=B36, "No hay datos")))</f>
+        <v>No hay datos</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="C37" s="13" t="str" cm="1">
+        <f t="array" ref="C37">_xlfn.TEXTJOIN(",", TRUE, _xlfn.UNIQUE(_xlfn._xlws.FILTER('Data extraction form'!$H$2:$H$9999, 'Data extraction form'!$G$2:$G$9999=B37, "No hay datos")))</f>
+        <v>System Tracking,Incident Management</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="52" t="s">
+        <v>268</v>
+      </c>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="C41" s="16" cm="1">
+        <f t="array" ref="C41">COUNTA(_xlfn._xlws.FILTER(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ","), _xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ",")=B41))</f>
+        <v>1</v>
+      </c>
+      <c r="D41" s="37">
+        <f>(C41/SUM(Table137[Number documents]))*100</f>
+        <v>33.333333333333329</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="C42" s="16" cm="1">
+        <f t="array" ref="C42">COUNTA(_xlfn._xlws.FILTER(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ","), _xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ",")=B42))</f>
+        <v>2</v>
+      </c>
+      <c r="D42" s="37">
+        <f>(C42/SUM(Table137[Number documents]))*100</f>
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="C46" s="16" cm="1">
+        <f t="array" ref="C46">COUNTA(_xlfn._xlws.FILTER(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ","), _xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ",")=B46))</f>
+        <v>2</v>
+      </c>
+      <c r="D46" s="37">
+        <f>(C46/SUM(Table13188[Number documents]))*100</f>
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="C47" s="16" cm="1">
+        <f t="array" ref="C47">COUNTA(_xlfn._xlws.FILTER(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ","), _xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ",")=B47))</f>
+        <v>1</v>
+      </c>
+      <c r="D47" s="37">
+        <f>(C47/SUM(Table13188[Number documents]))*100</f>
+        <v>33.333333333333329</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B49" s="52" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="C51" s="16" cm="1">
+        <f t="array" ref="C51">COUNTA(_xlfn._xlws.FILTER(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ","), _xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ",")=B51))</f>
+        <v>15</v>
+      </c>
+      <c r="D51" s="37">
+        <f>(C51/SUM(Table1318199[Number documents]))*100</f>
+        <v>27.777777777777779</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="C52" s="16" cm="1">
+        <f t="array" ref="C52">COUNTA(_xlfn._xlws.FILTER(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ","), _xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ",")=B52))</f>
+        <v>6</v>
+      </c>
+      <c r="D52" s="37">
+        <f>(C52/SUM(Table1318199[Number documents]))*100</f>
+        <v>11.111111111111111</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C53" s="16" cm="1">
+        <f t="array" ref="C53">COUNTA(_xlfn._xlws.FILTER(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ","), _xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ",")=B53))</f>
+        <v>10</v>
+      </c>
+      <c r="D53" s="37">
+        <f>(C53/SUM(Table1318199[Number documents]))*100</f>
+        <v>18.518518518518519</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="C54" s="16" cm="1">
+        <f t="array" ref="C54">COUNTA(_xlfn._xlws.FILTER(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ","), _xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ",")=B54))</f>
+        <v>9</v>
+      </c>
+      <c r="D54" s="37">
+        <f>(C54/SUM(Table1318199[Number documents]))*100</f>
+        <v>16.666666666666664</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="C55" s="16" cm="1">
+        <f t="array" ref="C55">COUNTA(_xlfn._xlws.FILTER(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ","), _xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ",")=B55))</f>
+        <v>12</v>
+      </c>
+      <c r="D55" s="37">
+        <f>(C55/SUM(Table1318199[Number documents]))*100</f>
+        <v>22.222222222222221</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="C56" s="16" cm="1">
+        <f t="array" ref="C56">COUNTA(_xlfn._xlws.FILTER(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ","), _xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ",")=B56))</f>
+        <v>2</v>
+      </c>
+      <c r="D56" s="37">
+        <f>(C56/SUM(Table1318199[Number documents]))*100</f>
+        <v>3.7037037037037033</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B58" s="52" t="s">
+        <v>2108</v>
+      </c>
+      <c r="C58" s="52"/>
+      <c r="D58" s="52"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="C60" s="16" cm="1">
+        <f t="array" ref="C60">COUNTA(_xlfn._xlws.FILTER(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ","), _xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ",")=B60))</f>
+        <v>17</v>
+      </c>
+      <c r="D60" s="38">
+        <f>(C60/SUM(Table1318199[Number documents]))*100</f>
+        <v>31.481481481481481</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="C61" s="18" cm="1">
+        <f t="array" ref="C61">COUNTA(_xlfn._xlws.FILTER(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ","), _xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ",")=B61))</f>
+        <v>10</v>
+      </c>
+      <c r="D61" s="39">
+        <f>(C61/SUM(Table1318199[Number documents]))*100</f>
+        <v>18.518518518518519</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B63" s="52" t="s">
+        <v>264</v>
+      </c>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="17" t="s">
+        <v>428</v>
+      </c>
+      <c r="C65" s="16" cm="1">
+        <f t="array" ref="C65">COUNTA(_xlfn._xlws.FILTER(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ","), _xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ",")=B65))</f>
+        <v>1</v>
+      </c>
+      <c r="D65" s="38">
+        <f>(C65/SUM(Table1318199[Number documents]))*100</f>
+        <v>1.8518518518518516</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="C66" s="18" cm="1">
+        <f t="array" ref="C66">COUNTA(_xlfn._xlws.FILTER(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ","), _xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$H$2:$H$9999), ",")=B66))</f>
+        <v>2</v>
+      </c>
+      <c r="D66" s="39">
+        <f>(C66/SUM(Table1318199[Number documents]))*100</f>
+        <v>3.7037037037037033</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>2094</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="53" t="s">
+        <v>2166</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>2171</v>
+      </c>
+      <c r="D70" s="26">
+        <f>C65</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" s="54"/>
+      <c r="C71" s="25" t="s">
+        <v>2172</v>
+      </c>
+      <c r="D71" s="26">
+        <f>C66</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="55" t="s">
+        <v>2167</v>
+      </c>
+      <c r="C72" s="27" t="s">
+        <v>2173</v>
+      </c>
+      <c r="D72" s="28">
+        <f>C60</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" s="56"/>
+      <c r="C73" s="27" t="s">
+        <v>2174</v>
+      </c>
+      <c r="D73" s="28">
+        <f>C61</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="53" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C74" s="25" t="s">
+        <v>2175</v>
+      </c>
+      <c r="D74" s="26">
+        <f>C56</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" s="57"/>
+      <c r="C75" s="29" t="s">
+        <v>2176</v>
+      </c>
+      <c r="D75" s="26">
+        <f>C55</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" s="57"/>
+      <c r="C76" s="25" t="s">
+        <v>2177</v>
+      </c>
+      <c r="D76" s="26">
+        <f>C54</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" s="57"/>
+      <c r="C77" s="25" t="s">
+        <v>2178</v>
+      </c>
+      <c r="D77" s="26">
+        <f>C53</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" s="57"/>
+      <c r="C78" s="25" t="s">
+        <v>2179</v>
+      </c>
+      <c r="D78" s="26">
+        <f>C52</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" s="54"/>
+      <c r="C79" s="25" t="s">
+        <v>2180</v>
+      </c>
+      <c r="D79" s="26">
+        <f>C51</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" s="55" t="s">
+        <v>2170</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>2181</v>
+      </c>
+      <c r="D80" s="28">
+        <f>C47</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" s="56"/>
+      <c r="C81" s="27" t="s">
+        <v>2184</v>
+      </c>
+      <c r="D81" s="28">
+        <f>C46</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" s="53" t="s">
+        <v>2169</v>
+      </c>
+      <c r="C82" s="25" t="s">
+        <v>2182</v>
+      </c>
+      <c r="D82" s="26">
+        <f>C42</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" s="54"/>
+      <c r="C83" s="25" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D83" s="26">
+        <f>C41</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B74:B79"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B70:B71"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="7">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0CFA70B-FF16-42E5-9C8A-AD6DFE143965}">
+  <dimension ref="B2:C67"/>
+  <sheetViews>
+    <sheetView topLeftCell="B7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="3" max="3" width="100.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="32" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="255" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="31" t="str">
+        <f>_xlfn.TEXTJOIN(",", TRUE, _xlfn.UNIQUE(_xlfn.TEXTSPLIT(LOWER(_xlfn.TEXTJOIN(",", TRUE, 'Data extraction form'!$K$2:$K$9999)), ","), TRUE))</f>
+        <v>not mentioned,gpt-3.5,sbert,chatgpt,falcon-40b,gpt-2,llama-7b,llama-13b,albert,bert,codebert,deberta,distilbert,roberta,tinypixel/llama-2-7b-bf16-sharded,faster rcnn inception resnet v2,codegpt,cat-lm,copilot,codeparrot-small,codeparrot,gpt-neo-125m,gpt-neo-13b,gpt-j,codegen-2b,codegen-6b,codefuse-13b,gpt-3.5-turbo,code-davinci-002,llama-2-chat,graphcodebert,codet5,coderanker,f-codellm,gpt4,starcoder,unixcoder,t5,txt2model,codex,gpt-4,gpt-3,gpt-3.5-turbo16k,gpt-4-1106-preview,flan-t5-small,flan-t5-base,chatglm-6b,gpt 3.5,gpt,chatgpt 3.5,codet5+,curie</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="33" t="s">
+        <v>465</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="C6" s="31" t="str" cm="1">
+        <f t="array" ref="C6">_xlfn.TEXTJOIN(",", TRUE, _xlfn._xlws.FILTER(_xlfn.TEXTSPLIT($B$3, ","), ISNUMBER(SEARCH(B6, _xlfn.TEXTSPLIT($B$3, ",")))))</f>
+        <v>gpt-3.5,chatgpt,gpt-2,codegpt,gpt-neo-125m,gpt-neo-13b,gpt-j,gpt-3.5-turbo,gpt4,gpt-4,gpt-3,gpt-3.5-turbo16k,gpt-4-1106-preview,gpt 3.5,gpt,chatgpt 3.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="34" t="s">
+        <v>462</v>
+      </c>
+      <c r="C7" s="31" t="str" cm="1">
+        <f t="array" ref="C7">_xlfn.TEXTJOIN(",", TRUE, _xlfn._xlws.FILTER(_xlfn.TEXTSPLIT($B$3, ","), ISNUMBER(SEARCH(B7, _xlfn.TEXTSPLIT($B$3, ",")))))</f>
+        <v>sbert,albert,bert,codebert,deberta,distilbert,roberta,graphcodebert</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="34" t="s">
+        <v>464</v>
+      </c>
+      <c r="C8" s="31" t="str" cm="1">
+        <f t="array" ref="C8">_xlfn.TEXTJOIN(",", TRUE, _xlfn._xlws.FILTER(_xlfn.TEXTSPLIT($B$3, ","), ISNUMBER(SEARCH(B8, _xlfn.TEXTSPLIT($B$3, ",")))))</f>
+        <v>codet5,t5,flan-t5-small,flan-t5-base,codet5+</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="C9" s="31" t="str" cm="1">
+        <f t="array" ref="C9">_xlfn.TEXTJOIN(",", TRUE, _xlfn._xlws.FILTER(_xlfn.TEXTSPLIT($B$3, ","), ISNUMBER(SEARCH(B9, _xlfn.TEXTSPLIT($B$3, ",")))))</f>
+        <v>llama-7b,llama-13b,tinypixel/llama-2-7b-bf16-sharded,llama-2-chat</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="C10" s="31" t="str" cm="1">
+        <f t="array" ref="C10">_xlfn.TEXTJOIN(",", TRUE, _xlfn._xlws.FILTER(_xlfn.TEXTSPLIT($B$3, ","), ISNUMBER(SEARCH(B10, _xlfn.TEXTSPLIT($B$3, ",")))))</f>
+        <v>codex</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="34" t="s">
+        <v>427</v>
+      </c>
+      <c r="C11" s="31" t="str" cm="1">
+        <f t="array" ref="C11">_xlfn.TEXTJOIN(",", TRUE, _xlfn._xlws.FILTER(_xlfn.TEXTSPLIT($B$3, ","), ISNUMBER(SEARCH(B11, _xlfn.TEXTSPLIT($B$3, ",")))))</f>
+        <v>not mentioned</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="34" t="s">
+        <v>466</v>
+      </c>
+      <c r="C12" s="31" t="str" cm="1">
+        <f t="array" ref="C12">_xlfn.TEXTJOIN(",", TRUE, IF(ISERROR(MATCH(_xlfn.TEXTSPLIT(B3, ","), _xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", TRUE, C6:C11), ","), 0)), _xlfn.TEXTSPLIT(B3, ","), ""))</f>
+        <v>falcon-40b,faster rcnn inception resnet v2,cat-lm,copilot,codeparrot-small,codeparrot,codegen-2b,codegen-6b,codefuse-13b,code-davinci-002,coderanker,f-codellm,starcoder,unixcoder,txt2model,chatglm-6b,curie</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B14" s="58" t="s">
+        <v>470</v>
+      </c>
+      <c r="C14" s="58"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C16" s="3" cm="1">
+        <f t="array" ref="C16">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT(C12, ","), 'Data extraction form'!$K$2:$K$9999)), ROW('Data extraction form'!$K$2:$K$9999)), ROW('Data extraction form'!$K$2:$K$9999)) &gt; 0, 1))</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C17" s="3" cm="1">
+        <f t="array" ref="C17">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT(C7, ","), 'Data extraction form'!$K$2:$K$9999)), ROW('Data extraction form'!$K$2:$K$9999)), ROW('Data extraction form'!$K$2:$K$9999)) &gt; 0, 1))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>2161</v>
+      </c>
+      <c r="C18" s="3" cm="1">
+        <f t="array" ref="C18">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT(C10, ","), 'Data extraction form'!$K$2:$K$9999)), ROW('Data extraction form'!$K$2:$K$9999)), ROW('Data extraction form'!$K$2:$K$9999)) &gt; 0, 1))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C19" s="3" cm="1">
+        <f t="array" ref="C19">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT(C6, ","), 'Data extraction form'!$K$2:$K$9999)), ROW('Data extraction form'!$K$2:$K$9999)), ROW('Data extraction form'!$K$2:$K$9999)) &gt; 0, 1))</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>2163</v>
+      </c>
+      <c r="C20" s="3" cm="1">
+        <f t="array" ref="C20">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT(C9, ","), 'Data extraction form'!$K$2:$K$9999)), ROW('Data extraction form'!$K$2:$K$9999)), ROW('Data extraction form'!$K$2:$K$9999)) &gt; 0, 1))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>2164</v>
+      </c>
+      <c r="C21" s="3" cm="1">
+        <f t="array" ref="C21">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT(C8, ","), 'Data extraction form'!$K$2:$K$9999)), ROW('Data extraction form'!$K$2:$K$9999)), ROW('Data extraction form'!$K$2:$K$9999)) &gt; 0, 1))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B24" s="58" t="s">
+        <v>268</v>
+      </c>
+      <c r="C24" s="58"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C26" s="3" cm="1">
+        <f t="array" ref="C26">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$12, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B24,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B24,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B24,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C27" s="3" cm="1">
+        <f t="array" ref="C27">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$7, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B24,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B24,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B24,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>2161</v>
+      </c>
+      <c r="C28" s="3" cm="1">
+        <f t="array" ref="C28">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$10, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B24,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B24,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B24,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C29" s="3" cm="1">
+        <f t="array" ref="C29">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$6, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B24,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B24,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B24,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>2163</v>
+      </c>
+      <c r="C30" s="3" cm="1">
+        <f t="array" ref="C30">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$9, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B24,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B24,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B24,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>2164</v>
+      </c>
+      <c r="C31" s="3" cm="1">
+        <f t="array" ref="C31">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$8, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B24,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B24,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B24,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B33" s="58" t="s">
+        <v>285</v>
+      </c>
+      <c r="C33" s="58"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C35" s="3" cm="1">
+        <f t="array" ref="C35">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$12, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B33,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B33,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B33,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C36" s="3" cm="1">
+        <f t="array" ref="C36">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$7, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B33,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B33,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B33,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
+        <v>2161</v>
+      </c>
+      <c r="C37" s="3" cm="1">
+        <f t="array" ref="C37">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$10, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B33,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B33,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B33,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C38" s="3" cm="1">
+        <f t="array" ref="C38">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$6, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B33,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B33,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B33,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
+        <v>2163</v>
+      </c>
+      <c r="C39" s="3" cm="1">
+        <f t="array" ref="C39">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$9, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B33,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B33,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B33,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
+        <v>2164</v>
+      </c>
+      <c r="C40" s="3" cm="1">
+        <f t="array" ref="C40">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$8, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B33,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B33,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B33,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B42" s="58" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C42" s="58"/>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C44" s="3" cm="1">
+        <f t="array" ref="C44">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$12, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B42,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B42,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B42,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C45" s="3" cm="1">
+        <f t="array" ref="C45">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$7, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B42,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B42,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B42,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="3" t="s">
+        <v>2161</v>
+      </c>
+      <c r="C46" s="3" cm="1">
+        <f t="array" ref="C46">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$10, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B42,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B42,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B42,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="3" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C47" s="3" cm="1">
+        <f t="array" ref="C47">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$6, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B42,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B42,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B42,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="3" t="s">
+        <v>2163</v>
+      </c>
+      <c r="C48" s="3" cm="1">
+        <f t="array" ref="C48">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$9, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B42,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B42,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B42,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="3" t="s">
+        <v>2164</v>
+      </c>
+      <c r="C49" s="3" cm="1">
+        <f t="array" ref="C49">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$8, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B42,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B42,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B42,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B51" s="58" t="s">
+        <v>2108</v>
+      </c>
+      <c r="C51" s="58"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C53" s="3" cm="1">
+        <f t="array" ref="C53">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$12, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B51,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B51,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B51,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="3" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C54" s="3" cm="1">
+        <f t="array" ref="C54">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$7, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B51,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B51,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B51,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="3" t="s">
+        <v>2161</v>
+      </c>
+      <c r="C55" s="3" cm="1">
+        <f t="array" ref="C55">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$10, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B51,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B51,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B51,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="3" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C56" s="3" cm="1">
+        <f t="array" ref="C56">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$6, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B51,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B51,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B51,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="3" t="s">
+        <v>2163</v>
+      </c>
+      <c r="C57" s="3" cm="1">
+        <f t="array" ref="C57">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$9, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B51,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B51,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B51,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="3" t="s">
+        <v>2164</v>
+      </c>
+      <c r="C58" s="3" cm="1">
+        <f t="array" ref="C58">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$8, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B51,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B51,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B51,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B60" s="58" t="s">
+        <v>264</v>
+      </c>
+      <c r="C60" s="58"/>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C62" s="3" cm="1">
+        <f t="array" ref="C62">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$12, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B60,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B60,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B60,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="3" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C63" s="3" cm="1">
+        <f t="array" ref="C63">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$7, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B60,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B60,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B60,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="3" t="s">
+        <v>2161</v>
+      </c>
+      <c r="C64" s="3" cm="1">
+        <f t="array" ref="C64">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$10, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B60,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B60,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B60,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="3" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C65" s="3" cm="1">
+        <f t="array" ref="C65">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$6, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B60,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B60,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B60,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" s="3" t="s">
+        <v>2163</v>
+      </c>
+      <c r="C66" s="3" cm="1">
+        <f t="array" ref="C66">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$9, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B60,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B60,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B60,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" s="3" t="s">
+        <v>2164</v>
+      </c>
+      <c r="C67" s="3" cm="1">
+        <f t="array" ref="C67">SUM(IF(FREQUENCY(IF(ISNUMBER(SEARCH(_xlfn.TEXTSPLIT($C$8, ","), _xlfn._xlws.FILTER('Data extraction form'!$K$2:$K$9999, ISNUMBER(SEARCH(B60,'Data extraction form'!$G$2:$G$9999))))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B60,'Data extraction form'!$G$2:$G$9999)))), _xlfn._xlws.FILTER(ROW('Data extraction form'!$K$2:$K$9999),ISNUMBER(SEARCH(B60,'Data extraction form'!$G$2:$G$9999)))) &gt; 0, 1))</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B17:B21">
+    <sortCondition ref="B17:B21"/>
+  </sortState>
+  <mergeCells count="6">
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B51:C51"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="6">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87510E2C-ACA9-4D86-8C85-60304F11CA8E}">
+  <dimension ref="B2:O7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>2095</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="C3" s="3">
+        <f>COUNTIF('Data extraction form'!$I$2:$I$9999,B3)</f>
+        <v>20</v>
+      </c>
+      <c r="D3" s="22">
+        <f>(C3/SUM(Tabla4313249[Number documents]))*100</f>
+        <v>41.666666666666671</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="N3" s="3">
+        <f>COUNTIF('Data extraction form'!$L$2:$L$9999,M3)</f>
+        <v>5</v>
+      </c>
+      <c r="O3" s="22">
+        <f>(N3/SUM(Tabla43132495014[Number documents]))*100</f>
+        <v>10.416666666666668</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" s="3">
+        <f>COUNTIF('Data extraction form'!$I$2:$I$9999,B4)</f>
+        <v>15</v>
+      </c>
+      <c r="D4" s="22">
+        <f>(C4/SUM(Tabla4313249[Number documents]))*100</f>
+        <v>31.25</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>2185</v>
+      </c>
+      <c r="N4" s="3">
+        <f>COUNTIF('Data extraction form'!$L$2:$L$9999,M4)</f>
+        <v>4</v>
+      </c>
+      <c r="O4" s="22">
+        <f>(N4/SUM(Tabla43132495014[Number documents]))*100</f>
+        <v>8.3333333333333321</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C5" s="3">
+        <f>COUNTIF('Data extraction form'!$I$2:$I$9999,B5)</f>
+        <v>13</v>
+      </c>
+      <c r="D5" s="23">
+        <f>(C5/SUM(Tabla4313249[Number documents]))*100</f>
+        <v>27.083333333333332</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>2186</v>
+      </c>
+      <c r="N5" s="3">
+        <f>COUNTIF('Data extraction form'!$L$2:$L$9999,M5)</f>
+        <v>7</v>
+      </c>
+      <c r="O5" s="23">
+        <f>(N5/SUM(Tabla43132495014[Number documents]))*100</f>
+        <v>14.583333333333334</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M6" s="7" t="s">
+        <v>2188</v>
+      </c>
+      <c r="N6" s="3">
+        <f>COUNTIF('Data extraction form'!$L$2:$L$9999,M6)</f>
+        <v>2</v>
+      </c>
+      <c r="O6" s="22">
+        <f>(N6/SUM(Tabla43132495014[Number documents]))*100</f>
+        <v>4.1666666666666661</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M7" s="7" t="s">
+        <v>2187</v>
+      </c>
+      <c r="N7" s="3">
+        <f>COUNTIF('Data extraction form'!$L$2:$L$9999,M7)</f>
+        <v>30</v>
+      </c>
+      <c r="O7" s="22">
+        <f>(N7/SUM(Tabla43132495014[Number documents]))*100</f>
+        <v>62.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -41478,489 +41222,4 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{852AF474-4C28-4F0B-A034-3BF55C79AB56}">
-  <dimension ref="B2:D5"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3">
-        <f>COUNTIF('Data extraction form'!$D$2:$D$9999,B3)</f>
-        <v>39</v>
-      </c>
-      <c r="D3" s="22">
-        <f>(C3/SUM(Tabla43132[Number documents]))*100</f>
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
-        <v>2165</v>
-      </c>
-      <c r="C4" s="3">
-        <f>COUNTIF('Data extraction form'!$D$2:$D$9999,"Article")</f>
-        <v>8</v>
-      </c>
-      <c r="D4" s="22">
-        <f>(C4/SUM(Tabla43132[Number documents]))*100</f>
-        <v>16.666666666666664</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="3">
-        <f>COUNTIF('Data extraction form'!$D$2:$D$9999,B5)</f>
-        <v>1</v>
-      </c>
-      <c r="D5" s="23">
-        <f>(C5/SUM(Tabla43132[Number documents]))*100</f>
-        <v>2.083333333333333</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09960BA1-0316-47CC-AFCC-384DF5A744F6}">
-  <dimension ref="B2:I10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
-        <v>2096</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>2097</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>2098</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>2099</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
-        <v>2100</v>
-      </c>
-      <c r="C3" s="41" cm="1">
-        <f t="array" ref="C3">SUMPRODUCT(--ISNUMBER(SEARCH(B3, 'Data extraction form'!$A$2:$A$9999)))</f>
-        <v>3</v>
-      </c>
-      <c r="D3" s="41" cm="1">
-        <f t="array" ref="D3">SUMPRODUCT(--ISNUMBER(SEARCH(B3, 'Data extraction form'!$F$2:$F$9999)))</f>
-        <v>46</v>
-      </c>
-      <c r="E3" s="41" cm="1">
-        <f t="array" ref="E3">SUMPRODUCT(--ISNUMBER(SEARCH(B3, 'Data extraction form'!$B$2:$B$9999)))</f>
-        <v>7</v>
-      </c>
-      <c r="F3" s="41" cm="1">
-        <f t="array" ref="F3">SUMPRODUCT(--ISNUMBER(SEARCH(B3, 'Data extraction form'!$C$2:$C$9999)))</f>
-        <v>11</v>
-      </c>
-      <c r="G3" s="41" cm="1">
-        <f t="array" ref="G3">SUMPRODUCT(--ISNUMBER(SEARCH(B3, 'Data extraction form'!$A$2:'Data extraction form'!$L$9999)))</f>
-        <v>75</v>
-      </c>
-      <c r="H3" s="41" cm="1">
-        <f t="array" ref="H3">SUMPRODUCT(--(MMULT(--ISNUMBER(SEARCH(B3, 'Data extraction form'!$A$2:'Data extraction form'!$L$9999)), TRANSPOSE(COLUMN('Data extraction form'!$A$2:'Data extraction form'!$L$9999)^0)) &gt; 0))</f>
-        <v>48</v>
-      </c>
-      <c r="I3" s="42">
-        <f>ROUNDUP(((H3-MIN(H3:H10))/(MAX(H3:H10)-MIN(H3:H10)))*(50-10)+10,0)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
-        <v>2101</v>
-      </c>
-      <c r="C4" s="41" cm="1">
-        <f t="array" ref="C4">SUMPRODUCT(--ISNUMBER(SEARCH(B4, 'Data extraction form'!$A$2:$A$9999)))</f>
-        <v>10</v>
-      </c>
-      <c r="D4" s="41" cm="1">
-        <f t="array" ref="D4">SUMPRODUCT(--ISNUMBER(SEARCH(B4, 'Data extraction form'!$F$2:$F$9999)))</f>
-        <v>30</v>
-      </c>
-      <c r="E4" s="41" cm="1">
-        <f t="array" ref="E4">SUMPRODUCT(--ISNUMBER(SEARCH(B4, 'Data extraction form'!$B$2:$B$9999)))</f>
-        <v>24</v>
-      </c>
-      <c r="F4" s="41" cm="1">
-        <f t="array" ref="F4">SUMPRODUCT(--ISNUMBER(SEARCH(B4, 'Data extraction form'!$C$2:$C$9999)))</f>
-        <v>22</v>
-      </c>
-      <c r="G4" s="41" cm="1">
-        <f t="array" ref="G4">SUMPRODUCT(--ISNUMBER(SEARCH(B4, 'Data extraction form'!$A$2:'Data extraction form'!$L$9999)))</f>
-        <v>87</v>
-      </c>
-      <c r="H4" s="41" cm="1">
-        <f t="array" ref="H4">SUMPRODUCT(--(MMULT(--ISNUMBER(SEARCH(B4, 'Data extraction form'!$A$2:'Data extraction form'!$L$9999)), TRANSPOSE(COLUMN('Data extraction form'!$A$2:'Data extraction form'!$L$9999)^0)) &gt; 0))</f>
-        <v>37</v>
-      </c>
-      <c r="I4" s="42">
-        <f>ROUNDUP(((H4-MIN(H3:H10))/(MAX(H3:H10)-MIN(H3:H10)))*(50-10)+10,0)</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
-        <v>2102</v>
-      </c>
-      <c r="C5" s="41" cm="1">
-        <f t="array" ref="C5">SUMPRODUCT(--ISNUMBER(SEARCH(B5, 'Data extraction form'!$A$2:$A$9999)))</f>
-        <v>12</v>
-      </c>
-      <c r="D5" s="41" cm="1">
-        <f t="array" ref="D5">SUMPRODUCT(--ISNUMBER(SEARCH(B5, 'Data extraction form'!$F$2:$F$9999)))</f>
-        <v>28</v>
-      </c>
-      <c r="E5" s="41" cm="1">
-        <f t="array" ref="E5">SUMPRODUCT(--ISNUMBER(SEARCH(B5, 'Data extraction form'!$B$2:$B$9999)))</f>
-        <v>4</v>
-      </c>
-      <c r="F5" s="41" cm="1">
-        <f t="array" ref="F5">SUMPRODUCT(--ISNUMBER(SEARCH(B5, 'Data extraction form'!$C$2:$C$9999)))</f>
-        <v>3</v>
-      </c>
-      <c r="G5" s="41" cm="1">
-        <f t="array" ref="G5">SUMPRODUCT(--ISNUMBER(SEARCH(B5, 'Data extraction form'!$A$2:'Data extraction form'!$L$9999)))</f>
-        <v>58</v>
-      </c>
-      <c r="H5" s="41" cm="1">
-        <f t="array" ref="H5">SUMPRODUCT(--(MMULT(--ISNUMBER(SEARCH(B5, 'Data extraction form'!$A$2:'Data extraction form'!$L$9999)), TRANSPOSE(COLUMN('Data extraction form'!$A$2:'Data extraction form'!$L$9999)^0)) &gt; 0))</f>
-        <v>32</v>
-      </c>
-      <c r="I5" s="42">
-        <f>ROUNDUP(((H5-MIN(H3:H10))/(MAX(H3:H10)-MIN(H3:H10)))*(50-10)+10,0)</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>2103</v>
-      </c>
-      <c r="C6" s="41" cm="1">
-        <f t="array" ref="C6">SUMPRODUCT(--ISNUMBER(SEARCH(B6, 'Data extraction form'!$A$2:$A$9999)))</f>
-        <v>2</v>
-      </c>
-      <c r="D6" s="41" cm="1">
-        <f t="array" ref="D6">SUMPRODUCT(--ISNUMBER(SEARCH(B6, 'Data extraction form'!$F$2:$F$9999)))</f>
-        <v>6</v>
-      </c>
-      <c r="E6" s="41" cm="1">
-        <f t="array" ref="E6">SUMPRODUCT(--ISNUMBER(SEARCH(B6, 'Data extraction form'!$B$2:$B$9999)))</f>
-        <v>4</v>
-      </c>
-      <c r="F6" s="41" cm="1">
-        <f t="array" ref="F6">SUMPRODUCT(--ISNUMBER(SEARCH(B6, 'Data extraction form'!$C$2:$C$9999)))</f>
-        <v>4</v>
-      </c>
-      <c r="G6" s="41" cm="1">
-        <f t="array" ref="G6">SUMPRODUCT(--ISNUMBER(SEARCH(B6, 'Data extraction form'!$A$2:'Data extraction form'!$L$9999)))</f>
-        <v>16</v>
-      </c>
-      <c r="H6" s="41" cm="1">
-        <f t="array" ref="H6">SUMPRODUCT(--(MMULT(--ISNUMBER(SEARCH(B6, 'Data extraction form'!$A$2:'Data extraction form'!$L$9999)), TRANSPOSE(COLUMN('Data extraction form'!$A$2:'Data extraction form'!$L$9999)^0)) &gt; 0))</f>
-        <v>6</v>
-      </c>
-      <c r="I6" s="42">
-        <f>ROUNDUP(((H6-MIN(H3:H10))/(MAX(H3:H10)-MIN(H3:H10)))*(50-10)+10,0)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
-        <v>2104</v>
-      </c>
-      <c r="C7" s="41" cm="1">
-        <f t="array" ref="C7">SUMPRODUCT(--ISNUMBER(SEARCH(B7, 'Data extraction form'!$A$2:$A$9999)))</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="41" cm="1">
-        <f t="array" ref="D7">SUMPRODUCT(--ISNUMBER(SEARCH(B7, 'Data extraction form'!$F$2:$F$9999)))</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="41" cm="1">
-        <f t="array" ref="E7">SUMPRODUCT(--ISNUMBER(SEARCH(B7, 'Data extraction form'!$B$2:$B$9999)))</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="41" cm="1">
-        <f t="array" ref="F7">SUMPRODUCT(--ISNUMBER(SEARCH(B7, 'Data extraction form'!$C$2:$C$9999)))</f>
-        <v>3</v>
-      </c>
-      <c r="G7" s="41" cm="1">
-        <f t="array" ref="G7">SUMPRODUCT(--ISNUMBER(SEARCH(B7, 'Data extraction form'!$A$2:'Data extraction form'!$L$9999)))</f>
-        <v>3</v>
-      </c>
-      <c r="H7" s="41" cm="1">
-        <f t="array" ref="H7">SUMPRODUCT(--(MMULT(--ISNUMBER(SEARCH(B7, 'Data extraction form'!$A$2:'Data extraction form'!$L$9999)), TRANSPOSE(COLUMN('Data extraction form'!$A$2:'Data extraction form'!$L$9999)^0)) &gt; 0))</f>
-        <v>3</v>
-      </c>
-      <c r="I7" s="42">
-        <f>ROUNDUP(((H7-MIN(H3:H10))/(MAX(H3:H10)-MIN(H3:H10)))*(50-10)+10,0)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
-        <v>2105</v>
-      </c>
-      <c r="C8" s="41" cm="1">
-        <f t="array" ref="C8">SUMPRODUCT(--ISNUMBER(SEARCH(B8, 'Data extraction form'!$A$2:$A$9999)))</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="41" cm="1">
-        <f t="array" ref="D8">SUMPRODUCT(--ISNUMBER(SEARCH(B8, 'Data extraction form'!$F$2:$F$9999)))</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="41" cm="1">
-        <f t="array" ref="E8">SUMPRODUCT(--ISNUMBER(SEARCH(B8, 'Data extraction form'!$B$2:$B$9999)))</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="41" cm="1">
-        <f t="array" ref="F8">SUMPRODUCT(--ISNUMBER(SEARCH(B8, 'Data extraction form'!$C$2:$C$9999)))</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="41" cm="1">
-        <f t="array" ref="G8">SUMPRODUCT(--ISNUMBER(SEARCH(B8, 'Data extraction form'!$A$2:'Data extraction form'!$L$9999)))</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="41" cm="1">
-        <f t="array" ref="H8">SUMPRODUCT(--(MMULT(--ISNUMBER(SEARCH(B8, 'Data extraction form'!$A$2:'Data extraction form'!$L$9999)), TRANSPOSE(COLUMN('Data extraction form'!$A$2:'Data extraction form'!$L$9999)^0)) &gt; 0))</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="42"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>2106</v>
-      </c>
-      <c r="C9" s="41" cm="1">
-        <f t="array" ref="C9">SUMPRODUCT(--ISNUMBER(SEARCH(B9, 'Data extraction form'!$A$2:$A$9999)))</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="41" cm="1">
-        <f t="array" ref="D9">SUMPRODUCT(--ISNUMBER(SEARCH(B9, 'Data extraction form'!$F$2:$F$9999)))</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="41" cm="1">
-        <f t="array" ref="E9">SUMPRODUCT(--ISNUMBER(SEARCH(B9, 'Data extraction form'!$B$2:$B$9999)))</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="41" cm="1">
-        <f t="array" ref="F9">SUMPRODUCT(--ISNUMBER(SEARCH(B9, 'Data extraction form'!$C$2:$C$9999)))</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="41" cm="1">
-        <f t="array" ref="G9">SUMPRODUCT(--ISNUMBER(SEARCH(B9, 'Data extraction form'!$A$2:'Data extraction form'!$L$9999)))</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="41" cm="1">
-        <f t="array" ref="H9">SUMPRODUCT(--(MMULT(--ISNUMBER(SEARCH(B9, 'Data extraction form'!$A$2:'Data extraction form'!$L$9999)), TRANSPOSE(COLUMN('Data extraction form'!$A$2:'Data extraction form'!$L$9999)^0)) &gt; 0))</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="42"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
-        <v>2107</v>
-      </c>
-      <c r="C10" s="43" cm="1">
-        <f t="array" ref="C10">SUMPRODUCT(--ISNUMBER(SEARCH(B10, 'Data extraction form'!$A$2:$A$9999)))</f>
-        <v>1</v>
-      </c>
-      <c r="D10" s="43" cm="1">
-        <f t="array" ref="D10">SUMPRODUCT(--ISNUMBER(SEARCH(B10, 'Data extraction form'!$F$2:$F$9999)))</f>
-        <v>1</v>
-      </c>
-      <c r="E10" s="43" cm="1">
-        <f t="array" ref="E10">SUMPRODUCT(--ISNUMBER(SEARCH(B10, 'Data extraction form'!$B$2:$B$9999)))</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="43" cm="1">
-        <f t="array" ref="F10">SUMPRODUCT(--ISNUMBER(SEARCH(B10, 'Data extraction form'!$C$2:$C$9999)))</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="43" cm="1">
-        <f t="array" ref="G10">SUMPRODUCT(--ISNUMBER(SEARCH(B10, 'Data extraction form'!$A$2:'Data extraction form'!$L$9999)))</f>
-        <v>3</v>
-      </c>
-      <c r="H10" s="43" cm="1">
-        <f t="array" ref="H10">SUMPRODUCT(--(MMULT(--ISNUMBER(SEARCH(B10, 'Data extraction form'!$A$2:'Data extraction form'!$L$9999)), TRANSPOSE(COLUMN('Data extraction form'!$A$2:'Data extraction form'!$L$9999)^0)) &gt; 0))</f>
-        <v>2</v>
-      </c>
-      <c r="I10" s="44">
-        <f>ROUNDUP(((H10-MIN(H3:H10))/(MAX(H3:H10)-MIN(H3:H10)))*(50-10)+10,0)</f>
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{394E5EB0-34D2-4B67-93E0-32FD49D3F151}">
-  <dimension ref="B2:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
-        <v>2166</v>
-      </c>
-      <c r="C3" s="3">
-        <f>COUNTIF('Data extraction form'!$G$2:$G$9999,"*" &amp; B3 &amp; "*")</f>
-        <v>3</v>
-      </c>
-      <c r="D3" s="22">
-        <f>(C3/SUM(Tabla431322[Number documents]))*100</f>
-        <v>5.3571428571428568</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
-        <v>2167</v>
-      </c>
-      <c r="C4" s="3">
-        <f>COUNTIF('Data extraction form'!$G$2:$G$9999,"*" &amp; B4 &amp; "*")</f>
-        <v>20</v>
-      </c>
-      <c r="D4" s="22">
-        <f>(C4/SUM(Tabla431322[Number documents]))*100</f>
-        <v>35.714285714285715</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
-        <v>2168</v>
-      </c>
-      <c r="C5" s="3">
-        <f>COUNTIF('Data extraction form'!$G$2:$G$9999,"*" &amp; B5 &amp; "*")</f>
-        <v>27</v>
-      </c>
-      <c r="D5" s="23">
-        <f>(C5/SUM(Tabla431322[Number documents]))*100</f>
-        <v>48.214285714285715</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>2170</v>
-      </c>
-      <c r="C6" s="3">
-        <f>COUNTIF('Data extraction form'!$G$2:$G$9999,"*" &amp; B6 &amp; "*")</f>
-        <v>3</v>
-      </c>
-      <c r="D6" s="22">
-        <f>(C6/SUM(Tabla431322[Number documents]))*100</f>
-        <v>5.3571428571428568</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
-        <v>2169</v>
-      </c>
-      <c r="C7" s="3">
-        <f>COUNTIF('Data extraction form'!$G$2:$G$9999,"*" &amp; B7 &amp; "*")</f>
-        <v>3</v>
-      </c>
-      <c r="D7" s="22">
-        <f>(C7/SUM(Tabla431322[Number documents]))*100</f>
-        <v>5.3571428571428568</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
 </file>